--- a/models/classification/Human Vs Machine Scoring Calculations.xlsx
+++ b/models/classification/Human Vs Machine Scoring Calculations.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andy_\Desktop\venv2\IS450-T4\models\classification\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andy_\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{C0D82F7A-A008-4FAC-BC95-37830D4A0A9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABEA0524-BF85-4375-A628-3A8A11AEFD94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12552" windowHeight="7488"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12552" windowHeight="7488" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cm_ada_decision_tree" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -46,9 +53,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -606,6 +613,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -615,9 +625,6 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -972,7 +979,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BI161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -11551,9 +11558,9 @@
         <v>1</v>
       </c>
       <c r="B62" s="1"/>
-      <c r="C62" s="9">
+      <c r="C62" s="6">
         <f>AVERAGE($D$146:$BI$161)</f>
-        <v>0.404127305443095</v>
+        <v>0.743739691108112</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -11561,9 +11568,9 @@
         <v>6</v>
       </c>
       <c r="H62" s="1"/>
-      <c r="J62" s="7">
-        <f>C62/3</f>
-        <v>0.13470910181436499</v>
+      <c r="J62" s="4">
+        <f>C62/2.1875</f>
+        <v>0.33999528736370832</v>
       </c>
     </row>
     <row r="63" spans="1:59" ht="21" x14ac:dyDescent="0.4">
@@ -11576,7 +11583,7 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-      <c r="J63" s="7"/>
+      <c r="J63" s="4"/>
     </row>
     <row r="64" spans="1:59" ht="21" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
@@ -11590,7 +11597,7 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-      <c r="J64" s="7"/>
+      <c r="J64" s="4"/>
     </row>
     <row r="65" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B65" s="2">
@@ -25530,11 +25537,11 @@
       </c>
     </row>
     <row r="126" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A126" s="4" t="s">
+      <c r="A126" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B126" s="5"/>
-      <c r="C126" s="6"/>
+      <c r="B126" s="8"/>
+      <c r="C126" s="9"/>
       <c r="D126" s="2">
         <v>0</v>
       </c>
@@ -26925,235 +26932,235 @@
       <c r="C132" s="3">
         <v>20</v>
       </c>
-      <c r="D132" s="8">
+      <c r="D132" s="5">
         <f>IF(COUNT(B$66:B$123)&gt;1,COUNTIF(B$66:B$123,"="&amp;$A132)+COUNTIF(B$66:B$123,"="&amp;$B132)+COUNTIF(B$66:B$123,"="&amp;$C132),0)</f>
         <v>0</v>
       </c>
-      <c r="E132" s="8">
+      <c r="E132" s="5">
         <f t="shared" ref="E132:BI134" si="48">IF(COUNT(C$66:C$123)&gt;1,COUNTIF(C$66:C$123,"="&amp;$A132)+COUNTIF(C$66:C$123,"="&amp;$B132)+COUNTIF(C$66:C$123,"="&amp;$C132),0)</f>
         <v>0</v>
       </c>
-      <c r="F132" s="8">
+      <c r="F132" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="G132" s="8">
+      <c r="G132" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="H132" s="8">
+      <c r="H132" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="I132" s="8">
+      <c r="I132" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="J132" s="8">
+      <c r="J132" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="K132" s="8">
+      <c r="K132" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="L132" s="8">
+      <c r="L132" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="M132" s="8">
+      <c r="M132" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="N132" s="8">
+      <c r="N132" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="O132" s="8">
+      <c r="O132" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="P132" s="8">
+      <c r="P132" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="Q132" s="8">
+      <c r="Q132" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="R132" s="8">
+      <c r="R132" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="S132" s="8">
+      <c r="S132" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="T132" s="8">
+      <c r="T132" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="U132" s="8">
+      <c r="U132" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="V132" s="8">
+      <c r="V132" s="5">
         <f t="shared" si="48"/>
         <v>1</v>
       </c>
-      <c r="W132" s="8">
+      <c r="W132" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="X132" s="8">
+      <c r="X132" s="5">
         <f t="shared" si="48"/>
         <v>2</v>
       </c>
-      <c r="Y132" s="8">
+      <c r="Y132" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="Z132" s="8">
+      <c r="Z132" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AA132" s="8">
+      <c r="AA132" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AB132" s="8">
+      <c r="AB132" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AC132" s="8">
+      <c r="AC132" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AD132" s="8">
+      <c r="AD132" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AE132" s="8">
+      <c r="AE132" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AF132" s="8">
+      <c r="AF132" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AG132" s="8">
+      <c r="AG132" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AH132" s="8">
+      <c r="AH132" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AI132" s="8">
+      <c r="AI132" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AJ132" s="8">
+      <c r="AJ132" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AK132" s="8">
+      <c r="AK132" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AL132" s="8">
+      <c r="AL132" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AM132" s="8">
+      <c r="AM132" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AN132" s="8">
+      <c r="AN132" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AO132" s="8">
+      <c r="AO132" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AP132" s="8">
+      <c r="AP132" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AQ132" s="8">
+      <c r="AQ132" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AR132" s="8">
+      <c r="AR132" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AS132" s="8">
+      <c r="AS132" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AT132" s="8">
+      <c r="AT132" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AU132" s="8">
+      <c r="AU132" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AV132" s="8">
+      <c r="AV132" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AW132" s="8">
+      <c r="AW132" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AX132" s="8">
+      <c r="AX132" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AY132" s="8">
+      <c r="AY132" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AZ132" s="8">
+      <c r="AZ132" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="BA132" s="8">
+      <c r="BA132" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="BB132" s="8">
+      <c r="BB132" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="BC132" s="8">
+      <c r="BC132" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="BD132" s="8">
+      <c r="BD132" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="BE132" s="8">
+      <c r="BE132" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="BF132" s="8">
+      <c r="BF132" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="BG132" s="8">
+      <c r="BG132" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="BH132" s="8">
+      <c r="BH132" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="BI132" s="8">
+      <c r="BI132" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -27168,235 +27175,235 @@
       <c r="C133" s="3">
         <v>22</v>
       </c>
-      <c r="D133" s="8">
+      <c r="D133" s="5">
         <f t="shared" ref="D133:D134" si="49">IF(COUNT(B$66:B$123)&gt;1,COUNTIF(B$66:B$123,"="&amp;$A133)+COUNTIF(B$66:B$123,"="&amp;$B133)+COUNTIF(B$66:B$123,"="&amp;$C133),0)</f>
         <v>0</v>
       </c>
-      <c r="E133" s="8">
+      <c r="E133" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="F133" s="8">
+      <c r="F133" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="G133" s="8">
+      <c r="G133" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="H133" s="8">
+      <c r="H133" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="I133" s="8">
+      <c r="I133" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="J133" s="8">
+      <c r="J133" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="K133" s="8">
+      <c r="K133" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="L133" s="8">
+      <c r="L133" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="M133" s="8">
+      <c r="M133" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="N133" s="8">
+      <c r="N133" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="O133" s="8">
+      <c r="O133" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="P133" s="8">
+      <c r="P133" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="Q133" s="8">
+      <c r="Q133" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="R133" s="8">
+      <c r="R133" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="S133" s="8">
+      <c r="S133" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="T133" s="8">
+      <c r="T133" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="U133" s="8">
+      <c r="U133" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="V133" s="8">
+      <c r="V133" s="5">
         <f t="shared" si="48"/>
         <v>1</v>
       </c>
-      <c r="W133" s="8">
+      <c r="W133" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="X133" s="8">
+      <c r="X133" s="5">
         <f t="shared" si="48"/>
         <v>1</v>
       </c>
-      <c r="Y133" s="8">
+      <c r="Y133" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="Z133" s="8">
+      <c r="Z133" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AA133" s="8">
+      <c r="AA133" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AB133" s="8">
+      <c r="AB133" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AC133" s="8">
+      <c r="AC133" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AD133" s="8">
+      <c r="AD133" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AE133" s="8">
+      <c r="AE133" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AF133" s="8">
+      <c r="AF133" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AG133" s="8">
+      <c r="AG133" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AH133" s="8">
+      <c r="AH133" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AI133" s="8">
+      <c r="AI133" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AJ133" s="8">
+      <c r="AJ133" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AK133" s="8">
+      <c r="AK133" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AL133" s="8">
+      <c r="AL133" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AM133" s="8">
+      <c r="AM133" s="5">
         <f t="shared" si="48"/>
         <v>1</v>
       </c>
-      <c r="AN133" s="8">
+      <c r="AN133" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AO133" s="8">
+      <c r="AO133" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AP133" s="8">
+      <c r="AP133" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AQ133" s="8">
+      <c r="AQ133" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AR133" s="8">
+      <c r="AR133" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AS133" s="8">
+      <c r="AS133" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AT133" s="8">
+      <c r="AT133" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AU133" s="8">
+      <c r="AU133" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AV133" s="8">
+      <c r="AV133" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AW133" s="8">
+      <c r="AW133" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AX133" s="8">
+      <c r="AX133" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AY133" s="8">
+      <c r="AY133" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AZ133" s="8">
+      <c r="AZ133" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="BA133" s="8">
+      <c r="BA133" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="BB133" s="8">
+      <c r="BB133" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="BC133" s="8">
+      <c r="BC133" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="BD133" s="8">
+      <c r="BD133" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="BE133" s="8">
+      <c r="BE133" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="BF133" s="8">
+      <c r="BF133" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="BG133" s="8">
+      <c r="BG133" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="BH133" s="8">
+      <c r="BH133" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="BI133" s="8">
+      <c r="BI133" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -27411,235 +27418,235 @@
       <c r="C134" s="3">
         <v>24</v>
       </c>
-      <c r="D134" s="8">
+      <c r="D134" s="5">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="E134" s="8">
+      <c r="E134" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="F134" s="8">
+      <c r="F134" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="G134" s="8">
+      <c r="G134" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="H134" s="8">
+      <c r="H134" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="I134" s="8">
+      <c r="I134" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="J134" s="8">
+      <c r="J134" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="K134" s="8">
+      <c r="K134" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="L134" s="8">
+      <c r="L134" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="M134" s="8">
+      <c r="M134" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="N134" s="8">
+      <c r="N134" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="O134" s="8">
+      <c r="O134" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="P134" s="8">
+      <c r="P134" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="Q134" s="8">
+      <c r="Q134" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="R134" s="8">
+      <c r="R134" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="S134" s="8">
+      <c r="S134" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="T134" s="8">
+      <c r="T134" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="U134" s="8">
+      <c r="U134" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="V134" s="8">
+      <c r="V134" s="5">
         <f t="shared" si="48"/>
         <v>1</v>
       </c>
-      <c r="W134" s="8">
+      <c r="W134" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="X134" s="8">
+      <c r="X134" s="5">
         <f t="shared" si="48"/>
         <v>1</v>
       </c>
-      <c r="Y134" s="8">
+      <c r="Y134" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="Z134" s="8">
+      <c r="Z134" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AA134" s="8">
+      <c r="AA134" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AB134" s="8">
+      <c r="AB134" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AC134" s="8">
+      <c r="AC134" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AD134" s="8">
+      <c r="AD134" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AE134" s="8">
+      <c r="AE134" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AF134" s="8">
+      <c r="AF134" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AG134" s="8">
+      <c r="AG134" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AH134" s="8">
+      <c r="AH134" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AI134" s="8">
+      <c r="AI134" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AJ134" s="8">
+      <c r="AJ134" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AK134" s="8">
+      <c r="AK134" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AL134" s="8">
+      <c r="AL134" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AM134" s="8">
+      <c r="AM134" s="5">
         <f t="shared" si="48"/>
         <v>1</v>
       </c>
-      <c r="AN134" s="8">
+      <c r="AN134" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AO134" s="8">
+      <c r="AO134" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AP134" s="8">
+      <c r="AP134" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AQ134" s="8">
+      <c r="AQ134" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AR134" s="8">
+      <c r="AR134" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AS134" s="8">
+      <c r="AS134" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AT134" s="8">
+      <c r="AT134" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AU134" s="8">
+      <c r="AU134" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AV134" s="8">
+      <c r="AV134" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AW134" s="8">
+      <c r="AW134" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AX134" s="8">
+      <c r="AX134" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AY134" s="8">
+      <c r="AY134" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AZ134" s="8">
+      <c r="AZ134" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="BA134" s="8">
+      <c r="BA134" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="BB134" s="8">
+      <c r="BB134" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="BC134" s="8">
+      <c r="BC134" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="BD134" s="8">
+      <c r="BD134" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="BE134" s="8">
+      <c r="BE134" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="BF134" s="8">
+      <c r="BF134" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="BG134" s="8">
+      <c r="BG134" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="BH134" s="8">
+      <c r="BH134" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="BI134" s="8">
+      <c r="BI134" s="5">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -29578,11 +29585,11 @@
       </c>
     </row>
     <row r="145" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A145" s="4" t="s">
+      <c r="A145" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B145" s="5"/>
-      <c r="C145" s="6"/>
+      <c r="B145" s="8"/>
+      <c r="C145" s="9"/>
       <c r="D145" s="2">
         <v>0</v>
       </c>
@@ -29767,11 +29774,11 @@
       </c>
       <c r="C146" s="3"/>
       <c r="D146" t="str">
-        <f>IF(D127&lt;&gt;0,IFERROR(POWER(D127,2)/COUNT(B$66:B$123),""),"")</f>
+        <f>IF(D127&gt;=2,IFERROR(POWER(D127,2)/COUNT(B$66:B$123),""),"")</f>
         <v/>
       </c>
       <c r="E146" t="str">
-        <f t="shared" ref="E146:M161" si="77">IF(E127&lt;&gt;0,IFERROR(POWER(E127,2)/COUNT(C$66:C$123),""),"")</f>
+        <f t="shared" ref="E146:BI150" si="77">IF(E127&gt;=2,IFERROR(POWER(E127,2)/COUNT(C$66:C$123),""),"")</f>
         <v/>
       </c>
       <c r="F146" t="str">
@@ -29807,195 +29814,195 @@
         <v/>
       </c>
       <c r="N146" t="str">
-        <f t="shared" ref="N146:N161" si="78">IF(N127&lt;&gt;0,IFERROR(POWER(N127,2)/COUNT(L$66:L$123),""),"")</f>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="O146" t="str">
-        <f t="shared" ref="O146:O161" si="79">IF(O127&lt;&gt;0,IFERROR(POWER(O127,2)/COUNT(M$66:M$123),""),"")</f>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="P146" t="str">
-        <f t="shared" ref="P146:P161" si="80">IF(P127&lt;&gt;0,IFERROR(POWER(P127,2)/COUNT(N$66:N$123),""),"")</f>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="Q146" t="str">
-        <f t="shared" ref="Q146:Q161" si="81">IF(Q127&lt;&gt;0,IFERROR(POWER(Q127,2)/COUNT(O$66:O$123),""),"")</f>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="R146" t="str">
-        <f t="shared" ref="R146:R161" si="82">IF(R127&lt;&gt;0,IFERROR(POWER(R127,2)/COUNT(P$66:P$123),""),"")</f>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="S146" t="str">
-        <f t="shared" ref="S146:S161" si="83">IF(S127&lt;&gt;0,IFERROR(POWER(S127,2)/COUNT(Q$66:Q$123),""),"")</f>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="T146" t="str">
-        <f t="shared" ref="T146:T161" si="84">IF(T127&lt;&gt;0,IFERROR(POWER(T127,2)/COUNT(R$66:R$123),""),"")</f>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="U146" t="str">
-        <f t="shared" ref="U146:U161" si="85">IF(U127&lt;&gt;0,IFERROR(POWER(U127,2)/COUNT(S$66:S$123),""),"")</f>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="V146" t="str">
-        <f t="shared" ref="V146:V161" si="86">IF(V127&lt;&gt;0,IFERROR(POWER(V127,2)/COUNT(T$66:T$123),""),"")</f>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="W146" t="str">
-        <f t="shared" ref="W146:X161" si="87">IF(W127&lt;&gt;0,IFERROR(POWER(W127,2)/COUNT(U$66:U$123),""),"")</f>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="X146" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="Y146" t="str">
-        <f t="shared" ref="Y146:Y161" si="88">IF(Y127&lt;&gt;0,IFERROR(POWER(Y127,2)/COUNT(W$66:W$123),""),"")</f>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="Z146" t="str">
-        <f t="shared" ref="Z146:Z161" si="89">IF(Z127&lt;&gt;0,IFERROR(POWER(Z127,2)/COUNT(X$66:X$123),""),"")</f>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AA146" t="str">
-        <f t="shared" ref="AA146:AA161" si="90">IF(AA127&lt;&gt;0,IFERROR(POWER(AA127,2)/COUNT(Y$66:Y$123),""),"")</f>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AB146" t="str">
-        <f t="shared" ref="AB146:AB161" si="91">IF(AB127&lt;&gt;0,IFERROR(POWER(AB127,2)/COUNT(Z$66:Z$123),""),"")</f>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AC146" t="str">
-        <f t="shared" ref="AC146:AC161" si="92">IF(AC127&lt;&gt;0,IFERROR(POWER(AC127,2)/COUNT(AA$66:AA$123),""),"")</f>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AD146" t="str">
-        <f t="shared" ref="AD146:AD161" si="93">IF(AD127&lt;&gt;0,IFERROR(POWER(AD127,2)/COUNT(AB$66:AB$123),""),"")</f>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AE146" t="str">
-        <f t="shared" ref="AE146:AE161" si="94">IF(AE127&lt;&gt;0,IFERROR(POWER(AE127,2)/COUNT(AC$66:AC$123),""),"")</f>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AF146" t="str">
-        <f t="shared" ref="AF146:AF161" si="95">IF(AF127&lt;&gt;0,IFERROR(POWER(AF127,2)/COUNT(AD$66:AD$123),""),"")</f>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AG146" t="str">
-        <f t="shared" ref="AG146:AG161" si="96">IF(AG127&lt;&gt;0,IFERROR(POWER(AG127,2)/COUNT(AE$66:AE$123),""),"")</f>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AH146" t="str">
-        <f>IF(AH127&lt;&gt;0,IFERROR(POWER(AH127,2)/COUNT(AF$66:AF$123),""),"")</f>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AI146" t="str">
-        <f t="shared" ref="AI146:AI161" si="97">IF(AI127&lt;&gt;0,IFERROR(POWER(AI127,2)/COUNT(AG$66:AG$123),""),"")</f>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AJ146" t="str">
-        <f t="shared" ref="AJ146:AJ161" si="98">IF(AJ127&lt;&gt;0,IFERROR(POWER(AJ127,2)/COUNT(AH$66:AH$123),""),"")</f>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AK146" t="str">
-        <f t="shared" ref="AK146:AK161" si="99">IF(AK127&lt;&gt;0,IFERROR(POWER(AK127,2)/COUNT(AI$66:AI$123),""),"")</f>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AL146" t="str">
-        <f t="shared" ref="AL146:AL161" si="100">IF(AL127&lt;&gt;0,IFERROR(POWER(AL127,2)/COUNT(AJ$66:AJ$123),""),"")</f>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AM146" t="str">
-        <f t="shared" ref="AM146:AM161" si="101">IF(AM127&lt;&gt;0,IFERROR(POWER(AM127,2)/COUNT(AK$66:AK$123),""),"")</f>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AN146" t="str">
-        <f t="shared" ref="AN146:AN161" si="102">IF(AN127&lt;&gt;0,IFERROR(POWER(AN127,2)/COUNT(AL$66:AL$123),""),"")</f>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AO146" t="str">
-        <f t="shared" ref="AO146:AO161" si="103">IF(AO127&lt;&gt;0,IFERROR(POWER(AO127,2)/COUNT(AM$66:AM$123),""),"")</f>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AP146" t="str">
-        <f t="shared" ref="AP146:AP161" si="104">IF(AP127&lt;&gt;0,IFERROR(POWER(AP127,2)/COUNT(AN$66:AN$123),""),"")</f>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AQ146" t="str">
-        <f t="shared" ref="AQ146:AQ161" si="105">IF(AQ127&lt;&gt;0,IFERROR(POWER(AQ127,2)/COUNT(AO$66:AO$123),""),"")</f>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AR146" t="str">
-        <f t="shared" ref="AR146:AR161" si="106">IF(AR127&lt;&gt;0,IFERROR(POWER(AR127,2)/COUNT(AP$66:AP$123),""),"")</f>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AS146" t="str">
-        <f t="shared" ref="AS146:AS161" si="107">IF(AS127&lt;&gt;0,IFERROR(POWER(AS127,2)/COUNT(AQ$66:AQ$123),""),"")</f>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AT146" t="str">
-        <f t="shared" ref="AT146:AT161" si="108">IF(AT127&lt;&gt;0,IFERROR(POWER(AT127,2)/COUNT(AR$66:AR$123),""),"")</f>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AU146" t="str">
-        <f t="shared" ref="AU146:AU161" si="109">IF(AU127&lt;&gt;0,IFERROR(POWER(AU127,2)/COUNT(AS$66:AS$123),""),"")</f>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AV146" t="str">
-        <f t="shared" ref="AV146:AV161" si="110">IF(AV127&lt;&gt;0,IFERROR(POWER(AV127,2)/COUNT(AT$66:AT$123),""),"")</f>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AW146" t="str">
-        <f t="shared" ref="AW146:AW161" si="111">IF(AW127&lt;&gt;0,IFERROR(POWER(AW127,2)/COUNT(AU$66:AU$123),""),"")</f>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AX146" t="str">
-        <f t="shared" ref="AX146:AX161" si="112">IF(AX127&lt;&gt;0,IFERROR(POWER(AX127,2)/COUNT(AV$66:AV$123),""),"")</f>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AY146" t="str">
-        <f t="shared" ref="AY146:AY161" si="113">IF(AY127&lt;&gt;0,IFERROR(POWER(AY127,2)/COUNT(AW$66:AW$123),""),"")</f>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AZ146" t="str">
-        <f t="shared" ref="AZ146:AZ161" si="114">IF(AZ127&lt;&gt;0,IFERROR(POWER(AZ127,2)/COUNT(AX$66:AX$123),""),"")</f>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="BA146" t="str">
-        <f t="shared" ref="BA146:BA161" si="115">IF(BA127&lt;&gt;0,IFERROR(POWER(BA127,2)/COUNT(AY$66:AY$123),""),"")</f>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="BB146" t="str">
-        <f t="shared" ref="BB146:BB161" si="116">IF(BB127&lt;&gt;0,IFERROR(POWER(BB127,2)/COUNT(AZ$66:AZ$123),""),"")</f>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="BC146" t="str">
-        <f t="shared" ref="BC146:BC161" si="117">IF(BC127&lt;&gt;0,IFERROR(POWER(BC127,2)/COUNT(BA$66:BA$123),""),"")</f>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="BD146" t="str">
-        <f t="shared" ref="BD146:BD161" si="118">IF(BD127&lt;&gt;0,IFERROR(POWER(BD127,2)/COUNT(BB$66:BB$123),""),"")</f>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="BE146" t="str">
-        <f t="shared" ref="BE146:BE161" si="119">IF(BE127&lt;&gt;0,IFERROR(POWER(BE127,2)/COUNT(BC$66:BC$123),""),"")</f>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="BF146" t="str">
-        <f>IF(BF127&lt;&gt;0,IFERROR(POWER(BF127,2)/COUNT(BD$66:BD$123),""),"")</f>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="BG146" t="str">
-        <f t="shared" ref="BG146:BG161" si="120">IF(BG127&lt;&gt;0,IFERROR(POWER(BG127,2)/COUNT(BE$66:BE$123),""),"")</f>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="BH146" t="str">
-        <f t="shared" ref="BH146:BH161" si="121">IF(BH127&lt;&gt;0,IFERROR(POWER(BH127,2)/COUNT(BF$66:BF$123),""),"")</f>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="BI146" t="str">
-        <f t="shared" ref="BI146:BI161" si="122">IF(BI127&lt;&gt;0,IFERROR(POWER(BI127,2)/COUNT(BG$66:BG$123),""),"")</f>
+        <f t="shared" si="77"/>
         <v/>
       </c>
     </row>
@@ -30008,7 +30015,7 @@
       </c>
       <c r="C147" s="3"/>
       <c r="D147" t="str">
-        <f t="shared" ref="D147:D161" si="123">IF(D128&lt;&gt;0,IFERROR(POWER(D128,2)/COUNT(B$66:B$123),""),"")</f>
+        <f t="shared" ref="D147:D161" si="78">IF(D128&gt;=2,IFERROR(POWER(D128,2)/COUNT(B$66:B$123),""),"")</f>
         <v/>
       </c>
       <c r="E147" t="str">
@@ -30019,9 +30026,9 @@
         <f t="shared" si="77"/>
         <v/>
       </c>
-      <c r="G147">
+      <c r="G147" t="str">
         <f t="shared" si="77"/>
-        <v>0.33333333333333331</v>
+        <v/>
       </c>
       <c r="H147" t="str">
         <f t="shared" si="77"/>
@@ -30048,195 +30055,195 @@
         <v/>
       </c>
       <c r="N147" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="O147" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="P147" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="Q147" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="R147" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="S147" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="T147" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="U147" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="V147" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="W147" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="X147" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="Y147" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="Z147" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AA147" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AB147" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AC147" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AD147" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AE147" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AF147" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AG147" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AH147" t="str">
-        <f t="shared" ref="AH147:AH161" si="124">IF(AH128&lt;&gt;0,IFERROR(POWER(AH128,2)/COUNT(AF$66:AF$123),""),"")</f>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AI147" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AJ147" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AK147" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AL147" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AM147" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AN147" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AO147" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AP147" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AQ147" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AR147" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AS147" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AT147" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AU147" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AV147" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AW147" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AX147" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AY147" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AZ147" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="BA147" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="BB147" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="BC147" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="BD147" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="BE147" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="BF147" t="str">
-        <f t="shared" ref="BF147:BF161" si="125">IF(BF128&lt;&gt;0,IFERROR(POWER(BF128,2)/COUNT(BD$66:BD$123),""),"")</f>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="BG147" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="BH147" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="BI147" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
     </row>
@@ -30249,7 +30256,7 @@
       </c>
       <c r="C148" s="3"/>
       <c r="D148" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="E148" t="str">
@@ -30289,195 +30296,195 @@
         <v/>
       </c>
       <c r="N148" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="O148" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="P148" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="Q148" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="R148" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="S148" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="T148" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="U148" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="V148">
-        <f t="shared" si="86"/>
+        <f t="shared" si="77"/>
         <v>0.30769230769230771</v>
       </c>
       <c r="W148" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="X148" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="Y148" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="Z148" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AA148" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AB148" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AC148" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AD148" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AE148" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AF148" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AG148" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AH148" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AI148" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AJ148" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AK148" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AL148" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AM148" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AN148" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AO148" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AP148" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AQ148" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AR148" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AS148" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AT148" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AU148" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AV148" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AW148" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AX148" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AY148" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AZ148" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="BA148" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="BB148" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="BC148" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="BD148" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="BE148" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="BF148" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="BG148" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="BH148" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="BI148" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
     </row>
@@ -30490,7 +30497,7 @@
       </c>
       <c r="C149" s="3"/>
       <c r="D149" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="E149" t="str">
@@ -30530,195 +30537,195 @@
         <v/>
       </c>
       <c r="N149" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="O149" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="P149" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="Q149" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="R149" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="S149" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="T149" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="U149" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="V149">
-        <f t="shared" si="86"/>
-        <v>7.6923076923076927E-2</v>
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="V149" t="str">
+        <f t="shared" si="77"/>
+        <v/>
       </c>
       <c r="W149" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="X149" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="Y149" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="Z149" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AA149" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AB149" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AC149" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AD149" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AE149" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AF149" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AG149" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AH149" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AI149" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AJ149" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AK149" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AL149" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AM149" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AN149" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AO149" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AP149" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AQ149" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AR149" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AS149" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AT149" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AU149" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AV149" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AW149" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AX149" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AY149" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AZ149" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="BA149" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="BB149" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="BC149" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="BD149" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="BE149" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="BF149" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="BG149" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="BH149" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="BI149" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
     </row>
@@ -30731,7 +30738,7 @@
       </c>
       <c r="C150" s="3"/>
       <c r="D150" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="E150" t="str">
@@ -30771,195 +30778,195 @@
         <v/>
       </c>
       <c r="N150" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="O150" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="P150" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="Q150" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="R150" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="S150" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="T150" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="U150" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="V150">
-        <f t="shared" si="86"/>
-        <v>7.6923076923076927E-2</v>
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="V150" t="str">
+        <f t="shared" si="77"/>
+        <v/>
       </c>
       <c r="W150" t="str">
-        <f t="shared" si="87"/>
-        <v/>
-      </c>
-      <c r="X150">
-        <f t="shared" si="87"/>
-        <v>0.5</v>
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="X150" t="str">
+        <f t="shared" si="77"/>
+        <v/>
       </c>
       <c r="Y150" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="Z150" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AA150" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AB150" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AC150" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AD150" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AE150" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AF150" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" ref="AF150:AF161" si="79">IF(AF131&gt;=2,IFERROR(POWER(AF131,2)/COUNT(AD$66:AD$123),""),"")</f>
         <v/>
       </c>
       <c r="AG150" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" ref="AG150:AG161" si="80">IF(AG131&gt;=2,IFERROR(POWER(AG131,2)/COUNT(AE$66:AE$123),""),"")</f>
         <v/>
       </c>
       <c r="AH150" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" ref="AH150:AH161" si="81">IF(AH131&gt;=2,IFERROR(POWER(AH131,2)/COUNT(AF$66:AF$123),""),"")</f>
         <v/>
       </c>
       <c r="AI150" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" ref="AI150:AI161" si="82">IF(AI131&gt;=2,IFERROR(POWER(AI131,2)/COUNT(AG$66:AG$123),""),"")</f>
         <v/>
       </c>
       <c r="AJ150" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" ref="AJ150:AJ161" si="83">IF(AJ131&gt;=2,IFERROR(POWER(AJ131,2)/COUNT(AH$66:AH$123),""),"")</f>
         <v/>
       </c>
       <c r="AK150" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" ref="AK150:AK161" si="84">IF(AK131&gt;=2,IFERROR(POWER(AK131,2)/COUNT(AI$66:AI$123),""),"")</f>
         <v/>
       </c>
       <c r="AL150" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" ref="AL150:AL161" si="85">IF(AL131&gt;=2,IFERROR(POWER(AL131,2)/COUNT(AJ$66:AJ$123),""),"")</f>
         <v/>
       </c>
       <c r="AM150" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" ref="AM150:AM161" si="86">IF(AM131&gt;=2,IFERROR(POWER(AM131,2)/COUNT(AK$66:AK$123),""),"")</f>
         <v/>
       </c>
       <c r="AN150" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" ref="AN150:AN161" si="87">IF(AN131&gt;=2,IFERROR(POWER(AN131,2)/COUNT(AL$66:AL$123),""),"")</f>
         <v/>
       </c>
       <c r="AO150" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" ref="AO150:AO161" si="88">IF(AO131&gt;=2,IFERROR(POWER(AO131,2)/COUNT(AM$66:AM$123),""),"")</f>
         <v/>
       </c>
       <c r="AP150" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" ref="AP150:AP161" si="89">IF(AP131&gt;=2,IFERROR(POWER(AP131,2)/COUNT(AN$66:AN$123),""),"")</f>
         <v/>
       </c>
       <c r="AQ150" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" ref="AQ150:AQ161" si="90">IF(AQ131&gt;=2,IFERROR(POWER(AQ131,2)/COUNT(AO$66:AO$123),""),"")</f>
         <v/>
       </c>
       <c r="AR150" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" ref="AR150:AR161" si="91">IF(AR131&gt;=2,IFERROR(POWER(AR131,2)/COUNT(AP$66:AP$123),""),"")</f>
         <v/>
       </c>
       <c r="AS150" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" ref="AS150:AS161" si="92">IF(AS131&gt;=2,IFERROR(POWER(AS131,2)/COUNT(AQ$66:AQ$123),""),"")</f>
         <v/>
       </c>
       <c r="AT150" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" ref="AT150:AT161" si="93">IF(AT131&gt;=2,IFERROR(POWER(AT131,2)/COUNT(AR$66:AR$123),""),"")</f>
         <v/>
       </c>
       <c r="AU150" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" ref="AU150:AU161" si="94">IF(AU131&gt;=2,IFERROR(POWER(AU131,2)/COUNT(AS$66:AS$123),""),"")</f>
         <v/>
       </c>
       <c r="AV150" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" ref="AV150:AV161" si="95">IF(AV131&gt;=2,IFERROR(POWER(AV131,2)/COUNT(AT$66:AT$123),""),"")</f>
         <v/>
       </c>
       <c r="AW150" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" ref="AW150:AW161" si="96">IF(AW131&gt;=2,IFERROR(POWER(AW131,2)/COUNT(AU$66:AU$123),""),"")</f>
         <v/>
       </c>
       <c r="AX150" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" ref="AX150:AX161" si="97">IF(AX131&gt;=2,IFERROR(POWER(AX131,2)/COUNT(AV$66:AV$123),""),"")</f>
         <v/>
       </c>
       <c r="AY150" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" ref="AY150:AY161" si="98">IF(AY131&gt;=2,IFERROR(POWER(AY131,2)/COUNT(AW$66:AW$123),""),"")</f>
         <v/>
       </c>
       <c r="AZ150" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" ref="AZ150:AZ161" si="99">IF(AZ131&gt;=2,IFERROR(POWER(AZ131,2)/COUNT(AX$66:AX$123),""),"")</f>
         <v/>
       </c>
       <c r="BA150" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" ref="BA150:BA161" si="100">IF(BA131&gt;=2,IFERROR(POWER(BA131,2)/COUNT(AY$66:AY$123),""),"")</f>
         <v/>
       </c>
       <c r="BB150" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" ref="BB150:BB161" si="101">IF(BB131&gt;=2,IFERROR(POWER(BB131,2)/COUNT(AZ$66:AZ$123),""),"")</f>
         <v/>
       </c>
       <c r="BC150" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" ref="BC150:BC161" si="102">IF(BC131&gt;=2,IFERROR(POWER(BC131,2)/COUNT(BA$66:BA$123),""),"")</f>
         <v/>
       </c>
       <c r="BD150" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" ref="BD150:BD161" si="103">IF(BD131&gt;=2,IFERROR(POWER(BD131,2)/COUNT(BB$66:BB$123),""),"")</f>
         <v/>
       </c>
       <c r="BE150" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" ref="BE150:BE161" si="104">IF(BE131&gt;=2,IFERROR(POWER(BE131,2)/COUNT(BC$66:BC$123),""),"")</f>
         <v/>
       </c>
       <c r="BF150" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" ref="BF150:BF161" si="105">IF(BF131&gt;=2,IFERROR(POWER(BF131,2)/COUNT(BD$66:BD$123),""),"")</f>
         <v/>
       </c>
       <c r="BG150" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" ref="BG150:BG161" si="106">IF(BG131&gt;=2,IFERROR(POWER(BG131,2)/COUNT(BE$66:BE$123),""),"")</f>
         <v/>
       </c>
       <c r="BH150" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" ref="BH150:BH161" si="107">IF(BH131&gt;=2,IFERROR(POWER(BH131,2)/COUNT(BF$66:BF$123),""),"")</f>
         <v/>
       </c>
       <c r="BI150" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" ref="BI150:BI161" si="108">IF(BI131&gt;=2,IFERROR(POWER(BI131,2)/COUNT(BG$66:BG$123),""),"")</f>
         <v/>
       </c>
     </row>
@@ -30974,235 +30981,235 @@
         <v>20</v>
       </c>
       <c r="D151" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="E151" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" ref="E151:E161" si="109">IF(E132&gt;=2,IFERROR(POWER(E132,2)/COUNT(C$66:C$123),""),"")</f>
         <v/>
       </c>
       <c r="F151" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" ref="F151:F161" si="110">IF(F132&gt;=2,IFERROR(POWER(F132,2)/COUNT(D$66:D$123),""),"")</f>
         <v/>
       </c>
       <c r="G151" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" ref="G151:G161" si="111">IF(G132&gt;=2,IFERROR(POWER(G132,2)/COUNT(E$66:E$123),""),"")</f>
         <v/>
       </c>
       <c r="H151" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" ref="H151:H161" si="112">IF(H132&gt;=2,IFERROR(POWER(H132,2)/COUNT(F$66:F$123),""),"")</f>
         <v/>
       </c>
       <c r="I151" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" ref="I151:I161" si="113">IF(I132&gt;=2,IFERROR(POWER(I132,2)/COUNT(G$66:G$123),""),"")</f>
         <v/>
       </c>
       <c r="J151" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" ref="J151:J161" si="114">IF(J132&gt;=2,IFERROR(POWER(J132,2)/COUNT(H$66:H$123),""),"")</f>
         <v/>
       </c>
       <c r="K151" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" ref="K151:K161" si="115">IF(K132&gt;=2,IFERROR(POWER(K132,2)/COUNT(I$66:I$123),""),"")</f>
         <v/>
       </c>
       <c r="L151" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" ref="L151:L161" si="116">IF(L132&gt;=2,IFERROR(POWER(L132,2)/COUNT(J$66:J$123),""),"")</f>
         <v/>
       </c>
       <c r="M151" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" ref="M151:M161" si="117">IF(M132&gt;=2,IFERROR(POWER(M132,2)/COUNT(K$66:K$123),""),"")</f>
         <v/>
       </c>
       <c r="N151" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" ref="N151:N161" si="118">IF(N132&gt;=2,IFERROR(POWER(N132,2)/COUNT(L$66:L$123),""),"")</f>
         <v/>
       </c>
       <c r="O151" t="str">
+        <f t="shared" ref="O151:O161" si="119">IF(O132&gt;=2,IFERROR(POWER(O132,2)/COUNT(M$66:M$123),""),"")</f>
+        <v/>
+      </c>
+      <c r="P151" t="str">
+        <f t="shared" ref="P151:P161" si="120">IF(P132&gt;=2,IFERROR(POWER(P132,2)/COUNT(N$66:N$123),""),"")</f>
+        <v/>
+      </c>
+      <c r="Q151" t="str">
+        <f t="shared" ref="Q151:Q161" si="121">IF(Q132&gt;=2,IFERROR(POWER(Q132,2)/COUNT(O$66:O$123),""),"")</f>
+        <v/>
+      </c>
+      <c r="R151" t="str">
+        <f t="shared" ref="R151:R161" si="122">IF(R132&gt;=2,IFERROR(POWER(R132,2)/COUNT(P$66:P$123),""),"")</f>
+        <v/>
+      </c>
+      <c r="S151" t="str">
+        <f t="shared" ref="S151:S161" si="123">IF(S132&gt;=2,IFERROR(POWER(S132,2)/COUNT(Q$66:Q$123),""),"")</f>
+        <v/>
+      </c>
+      <c r="T151" t="str">
+        <f t="shared" ref="T151:T161" si="124">IF(T132&gt;=2,IFERROR(POWER(T132,2)/COUNT(R$66:R$123),""),"")</f>
+        <v/>
+      </c>
+      <c r="U151" t="str">
+        <f t="shared" ref="U151:U161" si="125">IF(U132&gt;=2,IFERROR(POWER(U132,2)/COUNT(S$66:S$123),""),"")</f>
+        <v/>
+      </c>
+      <c r="V151" t="str">
+        <f t="shared" ref="V151:V161" si="126">IF(V132&gt;=2,IFERROR(POWER(V132,2)/COUNT(T$66:T$123),""),"")</f>
+        <v/>
+      </c>
+      <c r="W151" t="str">
+        <f t="shared" ref="W151:W161" si="127">IF(W132&gt;=2,IFERROR(POWER(W132,2)/COUNT(U$66:U$123),""),"")</f>
+        <v/>
+      </c>
+      <c r="X151">
+        <f t="shared" ref="X151:X161" si="128">IF(X132&gt;=2,IFERROR(POWER(X132,2)/COUNT(V$66:V$123),""),"")</f>
+        <v>2</v>
+      </c>
+      <c r="Y151" t="str">
+        <f t="shared" ref="Y151:Y161" si="129">IF(Y132&gt;=2,IFERROR(POWER(Y132,2)/COUNT(W$66:W$123),""),"")</f>
+        <v/>
+      </c>
+      <c r="Z151" t="str">
+        <f t="shared" ref="Z151:Z161" si="130">IF(Z132&gt;=2,IFERROR(POWER(Z132,2)/COUNT(X$66:X$123),""),"")</f>
+        <v/>
+      </c>
+      <c r="AA151" t="str">
+        <f t="shared" ref="AA151:AA161" si="131">IF(AA132&gt;=2,IFERROR(POWER(AA132,2)/COUNT(Y$66:Y$123),""),"")</f>
+        <v/>
+      </c>
+      <c r="AB151" t="str">
+        <f t="shared" ref="AB151:AB161" si="132">IF(AB132&gt;=2,IFERROR(POWER(AB132,2)/COUNT(Z$66:Z$123),""),"")</f>
+        <v/>
+      </c>
+      <c r="AC151" t="str">
+        <f t="shared" ref="AC151:AC161" si="133">IF(AC132&gt;=2,IFERROR(POWER(AC132,2)/COUNT(AA$66:AA$123),""),"")</f>
+        <v/>
+      </c>
+      <c r="AD151" t="str">
+        <f t="shared" ref="AD151:AD161" si="134">IF(AD132&gt;=2,IFERROR(POWER(AD132,2)/COUNT(AB$66:AB$123),""),"")</f>
+        <v/>
+      </c>
+      <c r="AE151" t="str">
+        <f t="shared" ref="AE151:AE161" si="135">IF(AE132&gt;=2,IFERROR(POWER(AE132,2)/COUNT(AC$66:AC$123),""),"")</f>
+        <v/>
+      </c>
+      <c r="AF151" t="str">
         <f t="shared" si="79"/>
         <v/>
       </c>
-      <c r="P151" t="str">
+      <c r="AG151" t="str">
         <f t="shared" si="80"/>
         <v/>
       </c>
-      <c r="Q151" t="str">
+      <c r="AH151" t="str">
         <f t="shared" si="81"/>
         <v/>
       </c>
-      <c r="R151" t="str">
+      <c r="AI151" t="str">
         <f t="shared" si="82"/>
         <v/>
       </c>
-      <c r="S151" t="str">
+      <c r="AJ151" t="str">
         <f t="shared" si="83"/>
         <v/>
       </c>
-      <c r="T151" t="str">
+      <c r="AK151" t="str">
         <f t="shared" si="84"/>
         <v/>
       </c>
-      <c r="U151" t="str">
+      <c r="AL151" t="str">
         <f t="shared" si="85"/>
         <v/>
       </c>
-      <c r="V151">
+      <c r="AM151" t="str">
         <f t="shared" si="86"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="W151" t="str">
+        <v/>
+      </c>
+      <c r="AN151" t="str">
         <f t="shared" si="87"/>
         <v/>
       </c>
-      <c r="X151">
-        <f t="shared" si="87"/>
-        <v>2</v>
-      </c>
-      <c r="Y151" t="str">
+      <c r="AO151" t="str">
         <f t="shared" si="88"/>
         <v/>
       </c>
-      <c r="Z151" t="str">
+      <c r="AP151" t="str">
         <f t="shared" si="89"/>
         <v/>
       </c>
-      <c r="AA151" t="str">
+      <c r="AQ151" t="str">
         <f t="shared" si="90"/>
         <v/>
       </c>
-      <c r="AB151" t="str">
+      <c r="AR151" t="str">
         <f t="shared" si="91"/>
         <v/>
       </c>
-      <c r="AC151" t="str">
+      <c r="AS151" t="str">
         <f t="shared" si="92"/>
         <v/>
       </c>
-      <c r="AD151" t="str">
+      <c r="AT151" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
-      <c r="AE151" t="str">
+      <c r="AU151" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
-      <c r="AF151" t="str">
+      <c r="AV151" t="str">
         <f t="shared" si="95"/>
         <v/>
       </c>
-      <c r="AG151" t="str">
+      <c r="AW151" t="str">
         <f t="shared" si="96"/>
         <v/>
       </c>
-      <c r="AH151" t="str">
-        <f t="shared" si="124"/>
-        <v/>
-      </c>
-      <c r="AI151" t="str">
+      <c r="AX151" t="str">
         <f t="shared" si="97"/>
         <v/>
       </c>
-      <c r="AJ151" t="str">
+      <c r="AY151" t="str">
         <f t="shared" si="98"/>
         <v/>
       </c>
-      <c r="AK151" t="str">
+      <c r="AZ151" t="str">
         <f t="shared" si="99"/>
         <v/>
       </c>
-      <c r="AL151" t="str">
+      <c r="BA151" t="str">
         <f t="shared" si="100"/>
         <v/>
       </c>
-      <c r="AM151" t="str">
+      <c r="BB151" t="str">
         <f t="shared" si="101"/>
         <v/>
       </c>
-      <c r="AN151" t="str">
+      <c r="BC151" t="str">
         <f t="shared" si="102"/>
         <v/>
       </c>
-      <c r="AO151" t="str">
+      <c r="BD151" t="str">
         <f t="shared" si="103"/>
         <v/>
       </c>
-      <c r="AP151" t="str">
+      <c r="BE151" t="str">
         <f t="shared" si="104"/>
         <v/>
       </c>
-      <c r="AQ151" t="str">
+      <c r="BF151" t="str">
         <f t="shared" si="105"/>
         <v/>
       </c>
-      <c r="AR151" t="str">
+      <c r="BG151" t="str">
         <f t="shared" si="106"/>
         <v/>
       </c>
-      <c r="AS151" t="str">
+      <c r="BH151" t="str">
         <f t="shared" si="107"/>
         <v/>
       </c>
-      <c r="AT151" t="str">
+      <c r="BI151" t="str">
         <f t="shared" si="108"/>
-        <v/>
-      </c>
-      <c r="AU151" t="str">
-        <f t="shared" si="109"/>
-        <v/>
-      </c>
-      <c r="AV151" t="str">
-        <f t="shared" si="110"/>
-        <v/>
-      </c>
-      <c r="AW151" t="str">
-        <f t="shared" si="111"/>
-        <v/>
-      </c>
-      <c r="AX151" t="str">
-        <f t="shared" si="112"/>
-        <v/>
-      </c>
-      <c r="AY151" t="str">
-        <f t="shared" si="113"/>
-        <v/>
-      </c>
-      <c r="AZ151" t="str">
-        <f t="shared" si="114"/>
-        <v/>
-      </c>
-      <c r="BA151" t="str">
-        <f t="shared" si="115"/>
-        <v/>
-      </c>
-      <c r="BB151" t="str">
-        <f t="shared" si="116"/>
-        <v/>
-      </c>
-      <c r="BC151" t="str">
-        <f t="shared" si="117"/>
-        <v/>
-      </c>
-      <c r="BD151" t="str">
-        <f t="shared" si="118"/>
-        <v/>
-      </c>
-      <c r="BE151" t="str">
-        <f t="shared" si="119"/>
-        <v/>
-      </c>
-      <c r="BF151" t="str">
-        <f t="shared" si="125"/>
-        <v/>
-      </c>
-      <c r="BG151" t="str">
-        <f t="shared" si="120"/>
-        <v/>
-      </c>
-      <c r="BH151" t="str">
-        <f t="shared" si="121"/>
-        <v/>
-      </c>
-      <c r="BI151" t="str">
-        <f t="shared" si="122"/>
         <v/>
       </c>
     </row>
@@ -31217,235 +31224,235 @@
         <v>22</v>
       </c>
       <c r="D152" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="E152" t="str">
+        <f t="shared" si="109"/>
+        <v/>
+      </c>
+      <c r="F152" t="str">
+        <f t="shared" si="110"/>
+        <v/>
+      </c>
+      <c r="G152" t="str">
+        <f t="shared" si="111"/>
+        <v/>
+      </c>
+      <c r="H152" t="str">
+        <f t="shared" si="112"/>
+        <v/>
+      </c>
+      <c r="I152" t="str">
+        <f t="shared" si="113"/>
+        <v/>
+      </c>
+      <c r="J152" t="str">
+        <f t="shared" si="114"/>
+        <v/>
+      </c>
+      <c r="K152" t="str">
+        <f t="shared" si="115"/>
+        <v/>
+      </c>
+      <c r="L152" t="str">
+        <f t="shared" si="116"/>
+        <v/>
+      </c>
+      <c r="M152" t="str">
+        <f t="shared" si="117"/>
+        <v/>
+      </c>
+      <c r="N152" t="str">
+        <f t="shared" si="118"/>
+        <v/>
+      </c>
+      <c r="O152" t="str">
+        <f t="shared" si="119"/>
+        <v/>
+      </c>
+      <c r="P152" t="str">
+        <f t="shared" si="120"/>
+        <v/>
+      </c>
+      <c r="Q152" t="str">
+        <f t="shared" si="121"/>
+        <v/>
+      </c>
+      <c r="R152" t="str">
+        <f t="shared" si="122"/>
+        <v/>
+      </c>
+      <c r="S152" t="str">
         <f t="shared" si="123"/>
         <v/>
       </c>
-      <c r="E152" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="F152" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="G152" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="H152" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="I152" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="J152" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="K152" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="L152" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="M152" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="N152" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-      <c r="O152" t="str">
+      <c r="T152" t="str">
+        <f t="shared" si="124"/>
+        <v/>
+      </c>
+      <c r="U152" t="str">
+        <f t="shared" si="125"/>
+        <v/>
+      </c>
+      <c r="V152" t="str">
+        <f t="shared" si="126"/>
+        <v/>
+      </c>
+      <c r="W152" t="str">
+        <f t="shared" si="127"/>
+        <v/>
+      </c>
+      <c r="X152" t="str">
+        <f t="shared" si="128"/>
+        <v/>
+      </c>
+      <c r="Y152" t="str">
+        <f t="shared" si="129"/>
+        <v/>
+      </c>
+      <c r="Z152" t="str">
+        <f t="shared" si="130"/>
+        <v/>
+      </c>
+      <c r="AA152" t="str">
+        <f t="shared" si="131"/>
+        <v/>
+      </c>
+      <c r="AB152" t="str">
+        <f t="shared" si="132"/>
+        <v/>
+      </c>
+      <c r="AC152" t="str">
+        <f t="shared" si="133"/>
+        <v/>
+      </c>
+      <c r="AD152" t="str">
+        <f t="shared" si="134"/>
+        <v/>
+      </c>
+      <c r="AE152" t="str">
+        <f t="shared" si="135"/>
+        <v/>
+      </c>
+      <c r="AF152" t="str">
         <f t="shared" si="79"/>
         <v/>
       </c>
-      <c r="P152" t="str">
+      <c r="AG152" t="str">
         <f t="shared" si="80"/>
         <v/>
       </c>
-      <c r="Q152" t="str">
+      <c r="AH152" t="str">
         <f t="shared" si="81"/>
         <v/>
       </c>
-      <c r="R152" t="str">
+      <c r="AI152" t="str">
         <f t="shared" si="82"/>
         <v/>
       </c>
-      <c r="S152" t="str">
+      <c r="AJ152" t="str">
         <f t="shared" si="83"/>
         <v/>
       </c>
-      <c r="T152" t="str">
+      <c r="AK152" t="str">
         <f t="shared" si="84"/>
         <v/>
       </c>
-      <c r="U152" t="str">
+      <c r="AL152" t="str">
         <f t="shared" si="85"/>
         <v/>
       </c>
-      <c r="V152">
+      <c r="AM152" t="str">
         <f t="shared" si="86"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="W152" t="str">
+        <v/>
+      </c>
+      <c r="AN152" t="str">
         <f t="shared" si="87"/>
         <v/>
       </c>
-      <c r="X152">
-        <f t="shared" si="87"/>
-        <v>0.5</v>
-      </c>
-      <c r="Y152" t="str">
+      <c r="AO152" t="str">
         <f t="shared" si="88"/>
         <v/>
       </c>
-      <c r="Z152" t="str">
+      <c r="AP152" t="str">
         <f t="shared" si="89"/>
         <v/>
       </c>
-      <c r="AA152" t="str">
+      <c r="AQ152" t="str">
         <f t="shared" si="90"/>
         <v/>
       </c>
-      <c r="AB152" t="str">
+      <c r="AR152" t="str">
         <f t="shared" si="91"/>
         <v/>
       </c>
-      <c r="AC152" t="str">
+      <c r="AS152" t="str">
         <f t="shared" si="92"/>
         <v/>
       </c>
-      <c r="AD152" t="str">
+      <c r="AT152" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
-      <c r="AE152" t="str">
+      <c r="AU152" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
-      <c r="AF152" t="str">
+      <c r="AV152" t="str">
         <f t="shared" si="95"/>
         <v/>
       </c>
-      <c r="AG152" t="str">
+      <c r="AW152" t="str">
         <f t="shared" si="96"/>
         <v/>
       </c>
-      <c r="AH152" t="str">
-        <f t="shared" si="124"/>
-        <v/>
-      </c>
-      <c r="AI152" t="str">
+      <c r="AX152" t="str">
         <f t="shared" si="97"/>
         <v/>
       </c>
-      <c r="AJ152" t="str">
+      <c r="AY152" t="str">
         <f t="shared" si="98"/>
         <v/>
       </c>
-      <c r="AK152" t="str">
+      <c r="AZ152" t="str">
         <f t="shared" si="99"/>
         <v/>
       </c>
-      <c r="AL152" t="str">
+      <c r="BA152" t="str">
         <f t="shared" si="100"/>
         <v/>
       </c>
-      <c r="AM152">
+      <c r="BB152" t="str">
         <f t="shared" si="101"/>
-        <v>5.2631578947368418E-2</v>
-      </c>
-      <c r="AN152" t="str">
+        <v/>
+      </c>
+      <c r="BC152" t="str">
         <f t="shared" si="102"/>
         <v/>
       </c>
-      <c r="AO152" t="str">
+      <c r="BD152" t="str">
         <f t="shared" si="103"/>
         <v/>
       </c>
-      <c r="AP152" t="str">
+      <c r="BE152" t="str">
         <f t="shared" si="104"/>
         <v/>
       </c>
-      <c r="AQ152" t="str">
+      <c r="BF152" t="str">
         <f t="shared" si="105"/>
         <v/>
       </c>
-      <c r="AR152" t="str">
+      <c r="BG152" t="str">
         <f t="shared" si="106"/>
         <v/>
       </c>
-      <c r="AS152" t="str">
+      <c r="BH152" t="str">
         <f t="shared" si="107"/>
         <v/>
       </c>
-      <c r="AT152" t="str">
+      <c r="BI152" t="str">
         <f t="shared" si="108"/>
-        <v/>
-      </c>
-      <c r="AU152" t="str">
-        <f t="shared" si="109"/>
-        <v/>
-      </c>
-      <c r="AV152" t="str">
-        <f t="shared" si="110"/>
-        <v/>
-      </c>
-      <c r="AW152" t="str">
-        <f t="shared" si="111"/>
-        <v/>
-      </c>
-      <c r="AX152" t="str">
-        <f t="shared" si="112"/>
-        <v/>
-      </c>
-      <c r="AY152" t="str">
-        <f t="shared" si="113"/>
-        <v/>
-      </c>
-      <c r="AZ152" t="str">
-        <f t="shared" si="114"/>
-        <v/>
-      </c>
-      <c r="BA152" t="str">
-        <f t="shared" si="115"/>
-        <v/>
-      </c>
-      <c r="BB152" t="str">
-        <f t="shared" si="116"/>
-        <v/>
-      </c>
-      <c r="BC152" t="str">
-        <f t="shared" si="117"/>
-        <v/>
-      </c>
-      <c r="BD152" t="str">
-        <f t="shared" si="118"/>
-        <v/>
-      </c>
-      <c r="BE152" t="str">
-        <f t="shared" si="119"/>
-        <v/>
-      </c>
-      <c r="BF152" t="str">
-        <f t="shared" si="125"/>
-        <v/>
-      </c>
-      <c r="BG152" t="str">
-        <f t="shared" si="120"/>
-        <v/>
-      </c>
-      <c r="BH152" t="str">
-        <f t="shared" si="121"/>
-        <v/>
-      </c>
-      <c r="BI152" t="str">
-        <f t="shared" si="122"/>
         <v/>
       </c>
     </row>
@@ -31460,235 +31467,235 @@
         <v>24</v>
       </c>
       <c r="D153" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="E153" t="str">
+        <f t="shared" si="109"/>
+        <v/>
+      </c>
+      <c r="F153" t="str">
+        <f t="shared" si="110"/>
+        <v/>
+      </c>
+      <c r="G153" t="str">
+        <f t="shared" si="111"/>
+        <v/>
+      </c>
+      <c r="H153" t="str">
+        <f t="shared" si="112"/>
+        <v/>
+      </c>
+      <c r="I153" t="str">
+        <f t="shared" si="113"/>
+        <v/>
+      </c>
+      <c r="J153" t="str">
+        <f t="shared" si="114"/>
+        <v/>
+      </c>
+      <c r="K153" t="str">
+        <f t="shared" si="115"/>
+        <v/>
+      </c>
+      <c r="L153" t="str">
+        <f t="shared" si="116"/>
+        <v/>
+      </c>
+      <c r="M153" t="str">
+        <f t="shared" si="117"/>
+        <v/>
+      </c>
+      <c r="N153" t="str">
+        <f t="shared" si="118"/>
+        <v/>
+      </c>
+      <c r="O153" t="str">
+        <f t="shared" si="119"/>
+        <v/>
+      </c>
+      <c r="P153" t="str">
+        <f t="shared" si="120"/>
+        <v/>
+      </c>
+      <c r="Q153" t="str">
+        <f t="shared" si="121"/>
+        <v/>
+      </c>
+      <c r="R153" t="str">
+        <f t="shared" si="122"/>
+        <v/>
+      </c>
+      <c r="S153" t="str">
         <f t="shared" si="123"/>
         <v/>
       </c>
-      <c r="E153" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="F153" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="G153" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="H153" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="I153" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="J153" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="K153" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="L153" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="M153" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="N153" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-      <c r="O153" t="str">
+      <c r="T153" t="str">
+        <f t="shared" si="124"/>
+        <v/>
+      </c>
+      <c r="U153" t="str">
+        <f t="shared" si="125"/>
+        <v/>
+      </c>
+      <c r="V153" t="str">
+        <f t="shared" si="126"/>
+        <v/>
+      </c>
+      <c r="W153" t="str">
+        <f t="shared" si="127"/>
+        <v/>
+      </c>
+      <c r="X153" t="str">
+        <f t="shared" si="128"/>
+        <v/>
+      </c>
+      <c r="Y153" t="str">
+        <f t="shared" si="129"/>
+        <v/>
+      </c>
+      <c r="Z153" t="str">
+        <f t="shared" si="130"/>
+        <v/>
+      </c>
+      <c r="AA153" t="str">
+        <f t="shared" si="131"/>
+        <v/>
+      </c>
+      <c r="AB153" t="str">
+        <f t="shared" si="132"/>
+        <v/>
+      </c>
+      <c r="AC153" t="str">
+        <f t="shared" si="133"/>
+        <v/>
+      </c>
+      <c r="AD153" t="str">
+        <f t="shared" si="134"/>
+        <v/>
+      </c>
+      <c r="AE153" t="str">
+        <f t="shared" si="135"/>
+        <v/>
+      </c>
+      <c r="AF153" t="str">
         <f t="shared" si="79"/>
         <v/>
       </c>
-      <c r="P153" t="str">
+      <c r="AG153" t="str">
         <f t="shared" si="80"/>
         <v/>
       </c>
-      <c r="Q153" t="str">
+      <c r="AH153" t="str">
         <f t="shared" si="81"/>
         <v/>
       </c>
-      <c r="R153" t="str">
+      <c r="AI153" t="str">
         <f t="shared" si="82"/>
         <v/>
       </c>
-      <c r="S153" t="str">
+      <c r="AJ153" t="str">
         <f t="shared" si="83"/>
         <v/>
       </c>
-      <c r="T153" t="str">
+      <c r="AK153" t="str">
         <f t="shared" si="84"/>
         <v/>
       </c>
-      <c r="U153" t="str">
+      <c r="AL153" t="str">
         <f t="shared" si="85"/>
         <v/>
       </c>
-      <c r="V153">
+      <c r="AM153" t="str">
         <f t="shared" si="86"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="W153" t="str">
+        <v/>
+      </c>
+      <c r="AN153" t="str">
         <f t="shared" si="87"/>
         <v/>
       </c>
-      <c r="X153">
-        <f t="shared" si="87"/>
-        <v>0.5</v>
-      </c>
-      <c r="Y153" t="str">
+      <c r="AO153" t="str">
         <f t="shared" si="88"/>
         <v/>
       </c>
-      <c r="Z153" t="str">
+      <c r="AP153" t="str">
         <f t="shared" si="89"/>
         <v/>
       </c>
-      <c r="AA153" t="str">
+      <c r="AQ153" t="str">
         <f t="shared" si="90"/>
         <v/>
       </c>
-      <c r="AB153" t="str">
+      <c r="AR153" t="str">
         <f t="shared" si="91"/>
         <v/>
       </c>
-      <c r="AC153" t="str">
+      <c r="AS153" t="str">
         <f t="shared" si="92"/>
         <v/>
       </c>
-      <c r="AD153" t="str">
+      <c r="AT153" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
-      <c r="AE153" t="str">
+      <c r="AU153" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
-      <c r="AF153" t="str">
+      <c r="AV153" t="str">
         <f t="shared" si="95"/>
         <v/>
       </c>
-      <c r="AG153" t="str">
+      <c r="AW153" t="str">
         <f t="shared" si="96"/>
         <v/>
       </c>
-      <c r="AH153" t="str">
-        <f t="shared" si="124"/>
-        <v/>
-      </c>
-      <c r="AI153" t="str">
+      <c r="AX153" t="str">
         <f t="shared" si="97"/>
         <v/>
       </c>
-      <c r="AJ153" t="str">
+      <c r="AY153" t="str">
         <f t="shared" si="98"/>
         <v/>
       </c>
-      <c r="AK153" t="str">
+      <c r="AZ153" t="str">
         <f t="shared" si="99"/>
         <v/>
       </c>
-      <c r="AL153" t="str">
+      <c r="BA153" t="str">
         <f t="shared" si="100"/>
         <v/>
       </c>
-      <c r="AM153">
+      <c r="BB153" t="str">
         <f t="shared" si="101"/>
-        <v>5.2631578947368418E-2</v>
-      </c>
-      <c r="AN153" t="str">
+        <v/>
+      </c>
+      <c r="BC153" t="str">
         <f t="shared" si="102"/>
         <v/>
       </c>
-      <c r="AO153" t="str">
+      <c r="BD153" t="str">
         <f t="shared" si="103"/>
         <v/>
       </c>
-      <c r="AP153" t="str">
+      <c r="BE153" t="str">
         <f t="shared" si="104"/>
         <v/>
       </c>
-      <c r="AQ153" t="str">
+      <c r="BF153" t="str">
         <f t="shared" si="105"/>
         <v/>
       </c>
-      <c r="AR153" t="str">
+      <c r="BG153" t="str">
         <f t="shared" si="106"/>
         <v/>
       </c>
-      <c r="AS153" t="str">
+      <c r="BH153" t="str">
         <f t="shared" si="107"/>
         <v/>
       </c>
-      <c r="AT153" t="str">
+      <c r="BI153" t="str">
         <f t="shared" si="108"/>
-        <v/>
-      </c>
-      <c r="AU153" t="str">
-        <f t="shared" si="109"/>
-        <v/>
-      </c>
-      <c r="AV153" t="str">
-        <f t="shared" si="110"/>
-        <v/>
-      </c>
-      <c r="AW153" t="str">
-        <f t="shared" si="111"/>
-        <v/>
-      </c>
-      <c r="AX153" t="str">
-        <f t="shared" si="112"/>
-        <v/>
-      </c>
-      <c r="AY153" t="str">
-        <f t="shared" si="113"/>
-        <v/>
-      </c>
-      <c r="AZ153" t="str">
-        <f t="shared" si="114"/>
-        <v/>
-      </c>
-      <c r="BA153" t="str">
-        <f t="shared" si="115"/>
-        <v/>
-      </c>
-      <c r="BB153" t="str">
-        <f t="shared" si="116"/>
-        <v/>
-      </c>
-      <c r="BC153" t="str">
-        <f t="shared" si="117"/>
-        <v/>
-      </c>
-      <c r="BD153" t="str">
-        <f t="shared" si="118"/>
-        <v/>
-      </c>
-      <c r="BE153" t="str">
-        <f t="shared" si="119"/>
-        <v/>
-      </c>
-      <c r="BF153" t="str">
-        <f t="shared" si="125"/>
-        <v/>
-      </c>
-      <c r="BG153" t="str">
-        <f t="shared" si="120"/>
-        <v/>
-      </c>
-      <c r="BH153" t="str">
-        <f t="shared" si="121"/>
-        <v/>
-      </c>
-      <c r="BI153" t="str">
-        <f t="shared" si="122"/>
         <v/>
       </c>
     </row>
@@ -31701,235 +31708,235 @@
       </c>
       <c r="C154" s="3"/>
       <c r="D154" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="E154" t="str">
+        <f t="shared" si="109"/>
+        <v/>
+      </c>
+      <c r="F154" t="str">
+        <f t="shared" si="110"/>
+        <v/>
+      </c>
+      <c r="G154" t="str">
+        <f t="shared" si="111"/>
+        <v/>
+      </c>
+      <c r="H154" t="str">
+        <f t="shared" si="112"/>
+        <v/>
+      </c>
+      <c r="I154" t="str">
+        <f t="shared" si="113"/>
+        <v/>
+      </c>
+      <c r="J154" t="str">
+        <f t="shared" si="114"/>
+        <v/>
+      </c>
+      <c r="K154" t="str">
+        <f t="shared" si="115"/>
+        <v/>
+      </c>
+      <c r="L154" t="str">
+        <f t="shared" si="116"/>
+        <v/>
+      </c>
+      <c r="M154" t="str">
+        <f t="shared" si="117"/>
+        <v/>
+      </c>
+      <c r="N154" t="str">
+        <f t="shared" si="118"/>
+        <v/>
+      </c>
+      <c r="O154" t="str">
+        <f t="shared" si="119"/>
+        <v/>
+      </c>
+      <c r="P154" t="str">
+        <f t="shared" si="120"/>
+        <v/>
+      </c>
+      <c r="Q154" t="str">
+        <f t="shared" si="121"/>
+        <v/>
+      </c>
+      <c r="R154" t="str">
+        <f t="shared" si="122"/>
+        <v/>
+      </c>
+      <c r="S154" t="str">
         <f t="shared" si="123"/>
         <v/>
       </c>
-      <c r="E154" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="F154" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="G154" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="H154" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="I154" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="J154" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="K154" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="L154" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="M154" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="N154" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-      <c r="O154" t="str">
+      <c r="T154" t="str">
+        <f t="shared" si="124"/>
+        <v/>
+      </c>
+      <c r="U154" t="str">
+        <f t="shared" si="125"/>
+        <v/>
+      </c>
+      <c r="V154" t="str">
+        <f t="shared" si="126"/>
+        <v/>
+      </c>
+      <c r="W154" t="str">
+        <f t="shared" si="127"/>
+        <v/>
+      </c>
+      <c r="X154" t="str">
+        <f t="shared" si="128"/>
+        <v/>
+      </c>
+      <c r="Y154" t="str">
+        <f t="shared" si="129"/>
+        <v/>
+      </c>
+      <c r="Z154" t="str">
+        <f t="shared" si="130"/>
+        <v/>
+      </c>
+      <c r="AA154" t="str">
+        <f t="shared" si="131"/>
+        <v/>
+      </c>
+      <c r="AB154" t="str">
+        <f t="shared" si="132"/>
+        <v/>
+      </c>
+      <c r="AC154" t="str">
+        <f t="shared" si="133"/>
+        <v/>
+      </c>
+      <c r="AD154" t="str">
+        <f t="shared" si="134"/>
+        <v/>
+      </c>
+      <c r="AE154" t="str">
+        <f t="shared" si="135"/>
+        <v/>
+      </c>
+      <c r="AF154" t="str">
         <f t="shared" si="79"/>
         <v/>
       </c>
-      <c r="P154" t="str">
+      <c r="AG154" t="str">
         <f t="shared" si="80"/>
         <v/>
       </c>
-      <c r="Q154" t="str">
+      <c r="AH154" t="str">
         <f t="shared" si="81"/>
         <v/>
       </c>
-      <c r="R154" t="str">
+      <c r="AI154" t="str">
         <f t="shared" si="82"/>
         <v/>
       </c>
-      <c r="S154" t="str">
+      <c r="AJ154" t="str">
         <f t="shared" si="83"/>
         <v/>
       </c>
-      <c r="T154" t="str">
+      <c r="AK154" t="str">
         <f t="shared" si="84"/>
         <v/>
       </c>
-      <c r="U154" t="str">
+      <c r="AL154" t="str">
         <f t="shared" si="85"/>
         <v/>
       </c>
-      <c r="V154">
+      <c r="AM154" t="str">
         <f t="shared" si="86"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="W154" t="str">
+        <v/>
+      </c>
+      <c r="AN154" t="str">
         <f t="shared" si="87"/>
         <v/>
       </c>
-      <c r="X154" t="str">
-        <f t="shared" si="87"/>
-        <v/>
-      </c>
-      <c r="Y154" t="str">
+      <c r="AO154" t="str">
         <f t="shared" si="88"/>
         <v/>
       </c>
-      <c r="Z154" t="str">
+      <c r="AP154" t="str">
         <f t="shared" si="89"/>
         <v/>
       </c>
-      <c r="AA154" t="str">
+      <c r="AQ154" t="str">
         <f t="shared" si="90"/>
         <v/>
       </c>
-      <c r="AB154" t="str">
+      <c r="AR154" t="str">
         <f t="shared" si="91"/>
         <v/>
       </c>
-      <c r="AC154" t="str">
+      <c r="AS154" t="str">
         <f t="shared" si="92"/>
         <v/>
       </c>
-      <c r="AD154" t="str">
+      <c r="AT154" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
-      <c r="AE154" t="str">
+      <c r="AU154" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
-      <c r="AF154" t="str">
+      <c r="AV154" t="str">
         <f t="shared" si="95"/>
         <v/>
       </c>
-      <c r="AG154" t="str">
+      <c r="AW154" t="str">
         <f t="shared" si="96"/>
         <v/>
       </c>
-      <c r="AH154" t="str">
-        <f t="shared" si="124"/>
-        <v/>
-      </c>
-      <c r="AI154" t="str">
+      <c r="AX154" t="str">
         <f t="shared" si="97"/>
         <v/>
       </c>
-      <c r="AJ154" t="str">
+      <c r="AY154" t="str">
         <f t="shared" si="98"/>
         <v/>
       </c>
-      <c r="AK154" t="str">
+      <c r="AZ154" t="str">
         <f t="shared" si="99"/>
         <v/>
       </c>
-      <c r="AL154" t="str">
+      <c r="BA154" t="str">
         <f t="shared" si="100"/>
         <v/>
       </c>
-      <c r="AM154">
+      <c r="BB154" t="str">
         <f t="shared" si="101"/>
-        <v>5.2631578947368418E-2</v>
-      </c>
-      <c r="AN154" t="str">
+        <v/>
+      </c>
+      <c r="BC154" t="str">
         <f t="shared" si="102"/>
         <v/>
       </c>
-      <c r="AO154" t="str">
+      <c r="BD154" t="str">
         <f t="shared" si="103"/>
         <v/>
       </c>
-      <c r="AP154" t="str">
+      <c r="BE154" t="str">
         <f t="shared" si="104"/>
         <v/>
       </c>
-      <c r="AQ154" t="str">
+      <c r="BF154" t="str">
         <f t="shared" si="105"/>
         <v/>
       </c>
-      <c r="AR154" t="str">
+      <c r="BG154" t="str">
         <f t="shared" si="106"/>
         <v/>
       </c>
-      <c r="AS154" t="str">
+      <c r="BH154" t="str">
         <f t="shared" si="107"/>
         <v/>
       </c>
-      <c r="AT154" t="str">
+      <c r="BI154" t="str">
         <f t="shared" si="108"/>
-        <v/>
-      </c>
-      <c r="AU154" t="str">
-        <f t="shared" si="109"/>
-        <v/>
-      </c>
-      <c r="AV154" t="str">
-        <f t="shared" si="110"/>
-        <v/>
-      </c>
-      <c r="AW154" t="str">
-        <f t="shared" si="111"/>
-        <v/>
-      </c>
-      <c r="AX154" t="str">
-        <f t="shared" si="112"/>
-        <v/>
-      </c>
-      <c r="AY154" t="str">
-        <f t="shared" si="113"/>
-        <v/>
-      </c>
-      <c r="AZ154" t="str">
-        <f t="shared" si="114"/>
-        <v/>
-      </c>
-      <c r="BA154" t="str">
-        <f t="shared" si="115"/>
-        <v/>
-      </c>
-      <c r="BB154" t="str">
-        <f t="shared" si="116"/>
-        <v/>
-      </c>
-      <c r="BC154" t="str">
-        <f t="shared" si="117"/>
-        <v/>
-      </c>
-      <c r="BD154" t="str">
-        <f t="shared" si="118"/>
-        <v/>
-      </c>
-      <c r="BE154" t="str">
-        <f t="shared" si="119"/>
-        <v/>
-      </c>
-      <c r="BF154" t="str">
-        <f t="shared" si="125"/>
-        <v/>
-      </c>
-      <c r="BG154" t="str">
-        <f t="shared" si="120"/>
-        <v/>
-      </c>
-      <c r="BH154" t="str">
-        <f t="shared" si="121"/>
-        <v/>
-      </c>
-      <c r="BI154" t="str">
-        <f t="shared" si="122"/>
         <v/>
       </c>
     </row>
@@ -31942,235 +31949,235 @@
       </c>
       <c r="C155" s="3"/>
       <c r="D155" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="E155" t="str">
+        <f t="shared" si="109"/>
+        <v/>
+      </c>
+      <c r="F155" t="str">
+        <f t="shared" si="110"/>
+        <v/>
+      </c>
+      <c r="G155" t="str">
+        <f t="shared" si="111"/>
+        <v/>
+      </c>
+      <c r="H155" t="str">
+        <f t="shared" si="112"/>
+        <v/>
+      </c>
+      <c r="I155" t="str">
+        <f t="shared" si="113"/>
+        <v/>
+      </c>
+      <c r="J155" t="str">
+        <f t="shared" si="114"/>
+        <v/>
+      </c>
+      <c r="K155" t="str">
+        <f t="shared" si="115"/>
+        <v/>
+      </c>
+      <c r="L155" t="str">
+        <f t="shared" si="116"/>
+        <v/>
+      </c>
+      <c r="M155" t="str">
+        <f t="shared" si="117"/>
+        <v/>
+      </c>
+      <c r="N155" t="str">
+        <f t="shared" si="118"/>
+        <v/>
+      </c>
+      <c r="O155" t="str">
+        <f t="shared" si="119"/>
+        <v/>
+      </c>
+      <c r="P155" t="str">
+        <f t="shared" si="120"/>
+        <v/>
+      </c>
+      <c r="Q155" t="str">
+        <f t="shared" si="121"/>
+        <v/>
+      </c>
+      <c r="R155" t="str">
+        <f t="shared" si="122"/>
+        <v/>
+      </c>
+      <c r="S155" t="str">
         <f t="shared" si="123"/>
         <v/>
       </c>
-      <c r="E155" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="F155" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="G155" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="H155" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="I155" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="J155" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="K155" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="L155" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="M155" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="N155" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-      <c r="O155" t="str">
+      <c r="T155" t="str">
+        <f t="shared" si="124"/>
+        <v/>
+      </c>
+      <c r="U155" t="str">
+        <f t="shared" si="125"/>
+        <v/>
+      </c>
+      <c r="V155" t="str">
+        <f t="shared" si="126"/>
+        <v/>
+      </c>
+      <c r="W155" t="str">
+        <f t="shared" si="127"/>
+        <v/>
+      </c>
+      <c r="X155">
+        <f t="shared" si="128"/>
+        <v>2</v>
+      </c>
+      <c r="Y155" t="str">
+        <f t="shared" si="129"/>
+        <v/>
+      </c>
+      <c r="Z155" t="str">
+        <f t="shared" si="130"/>
+        <v/>
+      </c>
+      <c r="AA155" t="str">
+        <f t="shared" si="131"/>
+        <v/>
+      </c>
+      <c r="AB155" t="str">
+        <f t="shared" si="132"/>
+        <v/>
+      </c>
+      <c r="AC155" t="str">
+        <f t="shared" si="133"/>
+        <v/>
+      </c>
+      <c r="AD155" t="str">
+        <f t="shared" si="134"/>
+        <v/>
+      </c>
+      <c r="AE155" t="str">
+        <f t="shared" si="135"/>
+        <v/>
+      </c>
+      <c r="AF155" t="str">
         <f t="shared" si="79"/>
         <v/>
       </c>
-      <c r="P155" t="str">
+      <c r="AG155" t="str">
         <f t="shared" si="80"/>
         <v/>
       </c>
-      <c r="Q155" t="str">
+      <c r="AH155" t="str">
         <f t="shared" si="81"/>
         <v/>
       </c>
-      <c r="R155" t="str">
+      <c r="AI155" t="str">
         <f t="shared" si="82"/>
         <v/>
       </c>
-      <c r="S155" t="str">
+      <c r="AJ155" t="str">
         <f t="shared" si="83"/>
         <v/>
       </c>
-      <c r="T155" t="str">
+      <c r="AK155" t="str">
         <f t="shared" si="84"/>
         <v/>
       </c>
-      <c r="U155" t="str">
+      <c r="AL155" t="str">
         <f t="shared" si="85"/>
         <v/>
       </c>
-      <c r="V155" t="str">
+      <c r="AM155" t="str">
         <f t="shared" si="86"/>
         <v/>
       </c>
-      <c r="W155" t="str">
+      <c r="AN155" t="str">
         <f t="shared" si="87"/>
         <v/>
       </c>
-      <c r="X155">
-        <f t="shared" si="87"/>
-        <v>2</v>
-      </c>
-      <c r="Y155" t="str">
+      <c r="AO155" t="str">
         <f t="shared" si="88"/>
         <v/>
       </c>
-      <c r="Z155" t="str">
+      <c r="AP155" t="str">
         <f t="shared" si="89"/>
         <v/>
       </c>
-      <c r="AA155" t="str">
+      <c r="AQ155" t="str">
         <f t="shared" si="90"/>
         <v/>
       </c>
-      <c r="AB155" t="str">
+      <c r="AR155" t="str">
         <f t="shared" si="91"/>
         <v/>
       </c>
-      <c r="AC155" t="str">
+      <c r="AS155" t="str">
         <f t="shared" si="92"/>
         <v/>
       </c>
-      <c r="AD155" t="str">
+      <c r="AT155" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
-      <c r="AE155" t="str">
+      <c r="AU155" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
-      <c r="AF155" t="str">
+      <c r="AV155" t="str">
         <f t="shared" si="95"/>
         <v/>
       </c>
-      <c r="AG155" t="str">
+      <c r="AW155" t="str">
         <f t="shared" si="96"/>
         <v/>
       </c>
-      <c r="AH155" t="str">
-        <f t="shared" si="124"/>
-        <v/>
-      </c>
-      <c r="AI155" t="str">
+      <c r="AX155" t="str">
         <f t="shared" si="97"/>
         <v/>
       </c>
-      <c r="AJ155" t="str">
+      <c r="AY155" t="str">
         <f t="shared" si="98"/>
         <v/>
       </c>
-      <c r="AK155" t="str">
+      <c r="AZ155" t="str">
         <f t="shared" si="99"/>
         <v/>
       </c>
-      <c r="AL155" t="str">
+      <c r="BA155" t="str">
         <f t="shared" si="100"/>
         <v/>
       </c>
-      <c r="AM155" t="str">
+      <c r="BB155" t="str">
         <f t="shared" si="101"/>
         <v/>
       </c>
-      <c r="AN155" t="str">
+      <c r="BC155" t="str">
         <f t="shared" si="102"/>
         <v/>
       </c>
-      <c r="AO155" t="str">
+      <c r="BD155" t="str">
         <f t="shared" si="103"/>
         <v/>
       </c>
-      <c r="AP155" t="str">
+      <c r="BE155" t="str">
         <f t="shared" si="104"/>
         <v/>
       </c>
-      <c r="AQ155" t="str">
+      <c r="BF155" t="str">
         <f t="shared" si="105"/>
         <v/>
       </c>
-      <c r="AR155" t="str">
+      <c r="BG155" t="str">
         <f t="shared" si="106"/>
         <v/>
       </c>
-      <c r="AS155" t="str">
+      <c r="BH155" t="str">
         <f t="shared" si="107"/>
         <v/>
       </c>
-      <c r="AT155" t="str">
+      <c r="BI155" t="str">
         <f t="shared" si="108"/>
-        <v/>
-      </c>
-      <c r="AU155" t="str">
-        <f t="shared" si="109"/>
-        <v/>
-      </c>
-      <c r="AV155" t="str">
-        <f t="shared" si="110"/>
-        <v/>
-      </c>
-      <c r="AW155" t="str">
-        <f t="shared" si="111"/>
-        <v/>
-      </c>
-      <c r="AX155" t="str">
-        <f t="shared" si="112"/>
-        <v/>
-      </c>
-      <c r="AY155" t="str">
-        <f t="shared" si="113"/>
-        <v/>
-      </c>
-      <c r="AZ155" t="str">
-        <f t="shared" si="114"/>
-        <v/>
-      </c>
-      <c r="BA155" t="str">
-        <f t="shared" si="115"/>
-        <v/>
-      </c>
-      <c r="BB155" t="str">
-        <f t="shared" si="116"/>
-        <v/>
-      </c>
-      <c r="BC155" t="str">
-        <f t="shared" si="117"/>
-        <v/>
-      </c>
-      <c r="BD155" t="str">
-        <f t="shared" si="118"/>
-        <v/>
-      </c>
-      <c r="BE155" t="str">
-        <f t="shared" si="119"/>
-        <v/>
-      </c>
-      <c r="BF155" t="str">
-        <f t="shared" si="125"/>
-        <v/>
-      </c>
-      <c r="BG155" t="str">
-        <f t="shared" si="120"/>
-        <v/>
-      </c>
-      <c r="BH155" t="str">
-        <f t="shared" si="121"/>
-        <v/>
-      </c>
-      <c r="BI155" t="str">
-        <f t="shared" si="122"/>
         <v/>
       </c>
     </row>
@@ -32183,235 +32190,235 @@
       </c>
       <c r="C156" s="3"/>
       <c r="D156" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="E156" t="str">
+        <f t="shared" si="109"/>
+        <v/>
+      </c>
+      <c r="F156" t="str">
+        <f t="shared" si="110"/>
+        <v/>
+      </c>
+      <c r="G156" t="str">
+        <f t="shared" si="111"/>
+        <v/>
+      </c>
+      <c r="H156" t="str">
+        <f t="shared" si="112"/>
+        <v/>
+      </c>
+      <c r="I156" t="str">
+        <f t="shared" si="113"/>
+        <v/>
+      </c>
+      <c r="J156" t="str">
+        <f t="shared" si="114"/>
+        <v/>
+      </c>
+      <c r="K156" t="str">
+        <f t="shared" si="115"/>
+        <v/>
+      </c>
+      <c r="L156" t="str">
+        <f t="shared" si="116"/>
+        <v/>
+      </c>
+      <c r="M156" t="str">
+        <f t="shared" si="117"/>
+        <v/>
+      </c>
+      <c r="N156" t="str">
+        <f t="shared" si="118"/>
+        <v/>
+      </c>
+      <c r="O156" t="str">
+        <f t="shared" si="119"/>
+        <v/>
+      </c>
+      <c r="P156" t="str">
+        <f t="shared" si="120"/>
+        <v/>
+      </c>
+      <c r="Q156" t="str">
+        <f t="shared" si="121"/>
+        <v/>
+      </c>
+      <c r="R156" t="str">
+        <f t="shared" si="122"/>
+        <v/>
+      </c>
+      <c r="S156" t="str">
         <f t="shared" si="123"/>
         <v/>
       </c>
-      <c r="E156" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="F156" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="G156" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="H156" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="I156" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="J156" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="K156" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="L156" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="M156" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="N156" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-      <c r="O156" t="str">
+      <c r="T156" t="str">
+        <f t="shared" si="124"/>
+        <v/>
+      </c>
+      <c r="U156" t="str">
+        <f t="shared" si="125"/>
+        <v/>
+      </c>
+      <c r="V156" t="str">
+        <f t="shared" si="126"/>
+        <v/>
+      </c>
+      <c r="W156" t="str">
+        <f t="shared" si="127"/>
+        <v/>
+      </c>
+      <c r="X156" t="str">
+        <f t="shared" si="128"/>
+        <v/>
+      </c>
+      <c r="Y156" t="str">
+        <f t="shared" si="129"/>
+        <v/>
+      </c>
+      <c r="Z156" t="str">
+        <f t="shared" si="130"/>
+        <v/>
+      </c>
+      <c r="AA156" t="str">
+        <f t="shared" si="131"/>
+        <v/>
+      </c>
+      <c r="AB156" t="str">
+        <f t="shared" si="132"/>
+        <v/>
+      </c>
+      <c r="AC156" t="str">
+        <f t="shared" si="133"/>
+        <v/>
+      </c>
+      <c r="AD156" t="str">
+        <f t="shared" si="134"/>
+        <v/>
+      </c>
+      <c r="AE156" t="str">
+        <f t="shared" si="135"/>
+        <v/>
+      </c>
+      <c r="AF156" t="str">
         <f t="shared" si="79"/>
         <v/>
       </c>
-      <c r="P156" t="str">
+      <c r="AG156" t="str">
         <f t="shared" si="80"/>
         <v/>
       </c>
-      <c r="Q156" t="str">
+      <c r="AH156" t="str">
         <f t="shared" si="81"/>
         <v/>
       </c>
-      <c r="R156" t="str">
+      <c r="AI156" t="str">
         <f t="shared" si="82"/>
         <v/>
       </c>
-      <c r="S156" t="str">
+      <c r="AJ156" t="str">
         <f t="shared" si="83"/>
         <v/>
       </c>
-      <c r="T156" t="str">
+      <c r="AK156" t="str">
         <f t="shared" si="84"/>
         <v/>
       </c>
-      <c r="U156" t="str">
+      <c r="AL156" t="str">
         <f t="shared" si="85"/>
         <v/>
       </c>
-      <c r="V156" t="str">
+      <c r="AM156" t="str">
         <f t="shared" si="86"/>
         <v/>
       </c>
-      <c r="W156" t="str">
+      <c r="AN156" t="str">
         <f t="shared" si="87"/>
         <v/>
       </c>
-      <c r="X156">
-        <f t="shared" si="87"/>
-        <v>0.5</v>
-      </c>
-      <c r="Y156" t="str">
+      <c r="AO156" t="str">
         <f t="shared" si="88"/>
         <v/>
       </c>
-      <c r="Z156" t="str">
+      <c r="AP156" t="str">
         <f t="shared" si="89"/>
         <v/>
       </c>
-      <c r="AA156" t="str">
+      <c r="AQ156" t="str">
         <f t="shared" si="90"/>
         <v/>
       </c>
-      <c r="AB156" t="str">
+      <c r="AR156" t="str">
         <f t="shared" si="91"/>
         <v/>
       </c>
-      <c r="AC156" t="str">
+      <c r="AS156" t="str">
         <f t="shared" si="92"/>
         <v/>
       </c>
-      <c r="AD156" t="str">
+      <c r="AT156" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
-      <c r="AE156" t="str">
+      <c r="AU156" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
-      <c r="AF156" t="str">
+      <c r="AV156" t="str">
         <f t="shared" si="95"/>
         <v/>
       </c>
-      <c r="AG156" t="str">
+      <c r="AW156" t="str">
         <f t="shared" si="96"/>
         <v/>
       </c>
-      <c r="AH156" t="str">
-        <f t="shared" si="124"/>
-        <v/>
-      </c>
-      <c r="AI156" t="str">
+      <c r="AX156" t="str">
         <f t="shared" si="97"/>
         <v/>
       </c>
-      <c r="AJ156" t="str">
+      <c r="AY156" t="str">
         <f t="shared" si="98"/>
         <v/>
       </c>
-      <c r="AK156" t="str">
+      <c r="AZ156" t="str">
         <f t="shared" si="99"/>
         <v/>
       </c>
-      <c r="AL156" t="str">
+      <c r="BA156" t="str">
         <f t="shared" si="100"/>
         <v/>
       </c>
-      <c r="AM156">
+      <c r="BB156" t="str">
         <f t="shared" si="101"/>
-        <v>5.2631578947368418E-2</v>
-      </c>
-      <c r="AN156" t="str">
+        <v/>
+      </c>
+      <c r="BC156" t="str">
         <f t="shared" si="102"/>
         <v/>
       </c>
-      <c r="AO156" t="str">
+      <c r="BD156" t="str">
         <f t="shared" si="103"/>
         <v/>
       </c>
-      <c r="AP156" t="str">
+      <c r="BE156" t="str">
         <f t="shared" si="104"/>
         <v/>
       </c>
-      <c r="AQ156" t="str">
+      <c r="BF156" t="str">
         <f t="shared" si="105"/>
         <v/>
       </c>
-      <c r="AR156" t="str">
+      <c r="BG156" t="str">
         <f t="shared" si="106"/>
         <v/>
       </c>
-      <c r="AS156" t="str">
+      <c r="BH156" t="str">
         <f t="shared" si="107"/>
         <v/>
       </c>
-      <c r="AT156" t="str">
+      <c r="BI156" t="str">
         <f t="shared" si="108"/>
-        <v/>
-      </c>
-      <c r="AU156" t="str">
-        <f t="shared" si="109"/>
-        <v/>
-      </c>
-      <c r="AV156" t="str">
-        <f t="shared" si="110"/>
-        <v/>
-      </c>
-      <c r="AW156" t="str">
-        <f t="shared" si="111"/>
-        <v/>
-      </c>
-      <c r="AX156" t="str">
-        <f t="shared" si="112"/>
-        <v/>
-      </c>
-      <c r="AY156" t="str">
-        <f t="shared" si="113"/>
-        <v/>
-      </c>
-      <c r="AZ156" t="str">
-        <f t="shared" si="114"/>
-        <v/>
-      </c>
-      <c r="BA156" t="str">
-        <f t="shared" si="115"/>
-        <v/>
-      </c>
-      <c r="BB156" t="str">
-        <f t="shared" si="116"/>
-        <v/>
-      </c>
-      <c r="BC156" t="str">
-        <f t="shared" si="117"/>
-        <v/>
-      </c>
-      <c r="BD156" t="str">
-        <f t="shared" si="118"/>
-        <v/>
-      </c>
-      <c r="BE156" t="str">
-        <f t="shared" si="119"/>
-        <v/>
-      </c>
-      <c r="BF156" t="str">
-        <f t="shared" si="125"/>
-        <v/>
-      </c>
-      <c r="BG156" t="str">
-        <f t="shared" si="120"/>
-        <v/>
-      </c>
-      <c r="BH156" t="str">
-        <f t="shared" si="121"/>
-        <v/>
-      </c>
-      <c r="BI156" t="str">
-        <f t="shared" si="122"/>
         <v/>
       </c>
     </row>
@@ -32424,235 +32431,235 @@
       </c>
       <c r="C157" s="3"/>
       <c r="D157" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="E157" t="str">
+        <f t="shared" si="109"/>
+        <v/>
+      </c>
+      <c r="F157" t="str">
+        <f t="shared" si="110"/>
+        <v/>
+      </c>
+      <c r="G157" t="str">
+        <f t="shared" si="111"/>
+        <v/>
+      </c>
+      <c r="H157" t="str">
+        <f t="shared" si="112"/>
+        <v/>
+      </c>
+      <c r="I157" t="str">
+        <f t="shared" si="113"/>
+        <v/>
+      </c>
+      <c r="J157" t="str">
+        <f t="shared" si="114"/>
+        <v/>
+      </c>
+      <c r="K157" t="str">
+        <f t="shared" si="115"/>
+        <v/>
+      </c>
+      <c r="L157" t="str">
+        <f t="shared" si="116"/>
+        <v/>
+      </c>
+      <c r="M157" t="str">
+        <f t="shared" si="117"/>
+        <v/>
+      </c>
+      <c r="N157" t="str">
+        <f t="shared" si="118"/>
+        <v/>
+      </c>
+      <c r="O157" t="str">
+        <f t="shared" si="119"/>
+        <v/>
+      </c>
+      <c r="P157" t="str">
+        <f t="shared" si="120"/>
+        <v/>
+      </c>
+      <c r="Q157" t="str">
+        <f t="shared" si="121"/>
+        <v/>
+      </c>
+      <c r="R157" t="str">
+        <f t="shared" si="122"/>
+        <v/>
+      </c>
+      <c r="S157" t="str">
         <f t="shared" si="123"/>
         <v/>
       </c>
-      <c r="E157" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="F157" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="G157" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="H157" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="I157" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="J157" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="K157" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="L157" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="M157" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="N157" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-      <c r="O157" t="str">
+      <c r="T157" t="str">
+        <f t="shared" si="124"/>
+        <v/>
+      </c>
+      <c r="U157" t="str">
+        <f t="shared" si="125"/>
+        <v/>
+      </c>
+      <c r="V157" t="str">
+        <f t="shared" si="126"/>
+        <v/>
+      </c>
+      <c r="W157" t="str">
+        <f t="shared" si="127"/>
+        <v/>
+      </c>
+      <c r="X157" t="str">
+        <f t="shared" si="128"/>
+        <v/>
+      </c>
+      <c r="Y157" t="str">
+        <f t="shared" si="129"/>
+        <v/>
+      </c>
+      <c r="Z157" t="str">
+        <f t="shared" si="130"/>
+        <v/>
+      </c>
+      <c r="AA157" t="str">
+        <f t="shared" si="131"/>
+        <v/>
+      </c>
+      <c r="AB157" t="str">
+        <f t="shared" si="132"/>
+        <v/>
+      </c>
+      <c r="AC157" t="str">
+        <f t="shared" si="133"/>
+        <v/>
+      </c>
+      <c r="AD157" t="str">
+        <f t="shared" si="134"/>
+        <v/>
+      </c>
+      <c r="AE157" t="str">
+        <f t="shared" si="135"/>
+        <v/>
+      </c>
+      <c r="AF157" t="str">
         <f t="shared" si="79"/>
         <v/>
       </c>
-      <c r="P157" t="str">
+      <c r="AG157" t="str">
         <f t="shared" si="80"/>
         <v/>
       </c>
-      <c r="Q157" t="str">
+      <c r="AH157" t="str">
         <f t="shared" si="81"/>
         <v/>
       </c>
-      <c r="R157" t="str">
+      <c r="AI157" t="str">
         <f t="shared" si="82"/>
         <v/>
       </c>
-      <c r="S157" t="str">
+      <c r="AJ157" t="str">
         <f t="shared" si="83"/>
         <v/>
       </c>
-      <c r="T157" t="str">
+      <c r="AK157" t="str">
         <f t="shared" si="84"/>
         <v/>
       </c>
-      <c r="U157" t="str">
+      <c r="AL157" t="str">
         <f t="shared" si="85"/>
         <v/>
       </c>
-      <c r="V157" t="str">
+      <c r="AM157">
         <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="W157" t="str">
+        <v>0.21052631578947367</v>
+      </c>
+      <c r="AN157" t="str">
         <f t="shared" si="87"/>
         <v/>
       </c>
-      <c r="X157" t="str">
-        <f t="shared" si="87"/>
-        <v/>
-      </c>
-      <c r="Y157" t="str">
+      <c r="AO157" t="str">
         <f t="shared" si="88"/>
         <v/>
       </c>
-      <c r="Z157" t="str">
+      <c r="AP157" t="str">
         <f t="shared" si="89"/>
         <v/>
       </c>
-      <c r="AA157" t="str">
+      <c r="AQ157" t="str">
         <f t="shared" si="90"/>
         <v/>
       </c>
-      <c r="AB157" t="str">
+      <c r="AR157" t="str">
         <f t="shared" si="91"/>
         <v/>
       </c>
-      <c r="AC157" t="str">
+      <c r="AS157" t="str">
         <f t="shared" si="92"/>
         <v/>
       </c>
-      <c r="AD157" t="str">
+      <c r="AT157" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
-      <c r="AE157" t="str">
+      <c r="AU157" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
-      <c r="AF157" t="str">
+      <c r="AV157" t="str">
         <f t="shared" si="95"/>
         <v/>
       </c>
-      <c r="AG157" t="str">
+      <c r="AW157" t="str">
         <f t="shared" si="96"/>
         <v/>
       </c>
-      <c r="AH157" t="str">
-        <f t="shared" si="124"/>
-        <v/>
-      </c>
-      <c r="AI157" t="str">
+      <c r="AX157" t="str">
         <f t="shared" si="97"/>
         <v/>
       </c>
-      <c r="AJ157" t="str">
+      <c r="AY157" t="str">
         <f t="shared" si="98"/>
         <v/>
       </c>
-      <c r="AK157" t="str">
+      <c r="AZ157" t="str">
         <f t="shared" si="99"/>
         <v/>
       </c>
-      <c r="AL157" t="str">
+      <c r="BA157" t="str">
         <f t="shared" si="100"/>
         <v/>
       </c>
-      <c r="AM157">
+      <c r="BB157" t="str">
         <f t="shared" si="101"/>
-        <v>0.21052631578947367</v>
-      </c>
-      <c r="AN157" t="str">
+        <v/>
+      </c>
+      <c r="BC157" t="str">
         <f t="shared" si="102"/>
         <v/>
       </c>
-      <c r="AO157" t="str">
+      <c r="BD157" t="str">
         <f t="shared" si="103"/>
         <v/>
       </c>
-      <c r="AP157" t="str">
+      <c r="BE157" t="str">
         <f t="shared" si="104"/>
         <v/>
       </c>
-      <c r="AQ157" t="str">
+      <c r="BF157" t="str">
         <f t="shared" si="105"/>
         <v/>
       </c>
-      <c r="AR157" t="str">
+      <c r="BG157" t="str">
         <f t="shared" si="106"/>
         <v/>
       </c>
-      <c r="AS157" t="str">
+      <c r="BH157" t="str">
         <f t="shared" si="107"/>
         <v/>
       </c>
-      <c r="AT157" t="str">
+      <c r="BI157" t="str">
         <f t="shared" si="108"/>
-        <v/>
-      </c>
-      <c r="AU157" t="str">
-        <f t="shared" si="109"/>
-        <v/>
-      </c>
-      <c r="AV157" t="str">
-        <f t="shared" si="110"/>
-        <v/>
-      </c>
-      <c r="AW157" t="str">
-        <f t="shared" si="111"/>
-        <v/>
-      </c>
-      <c r="AX157" t="str">
-        <f t="shared" si="112"/>
-        <v/>
-      </c>
-      <c r="AY157" t="str">
-        <f t="shared" si="113"/>
-        <v/>
-      </c>
-      <c r="AZ157" t="str">
-        <f t="shared" si="114"/>
-        <v/>
-      </c>
-      <c r="BA157" t="str">
-        <f t="shared" si="115"/>
-        <v/>
-      </c>
-      <c r="BB157" t="str">
-        <f t="shared" si="116"/>
-        <v/>
-      </c>
-      <c r="BC157" t="str">
-        <f t="shared" si="117"/>
-        <v/>
-      </c>
-      <c r="BD157" t="str">
-        <f t="shared" si="118"/>
-        <v/>
-      </c>
-      <c r="BE157" t="str">
-        <f t="shared" si="119"/>
-        <v/>
-      </c>
-      <c r="BF157" t="str">
-        <f t="shared" si="125"/>
-        <v/>
-      </c>
-      <c r="BG157" t="str">
-        <f t="shared" si="120"/>
-        <v/>
-      </c>
-      <c r="BH157" t="str">
-        <f t="shared" si="121"/>
-        <v/>
-      </c>
-      <c r="BI157" t="str">
-        <f t="shared" si="122"/>
         <v/>
       </c>
     </row>
@@ -32665,235 +32672,235 @@
       </c>
       <c r="C158" s="3"/>
       <c r="D158" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="E158" t="str">
+        <f t="shared" si="109"/>
+        <v/>
+      </c>
+      <c r="F158" t="str">
+        <f t="shared" si="110"/>
+        <v/>
+      </c>
+      <c r="G158" t="str">
+        <f t="shared" si="111"/>
+        <v/>
+      </c>
+      <c r="H158" t="str">
+        <f t="shared" si="112"/>
+        <v/>
+      </c>
+      <c r="I158" t="str">
+        <f t="shared" si="113"/>
+        <v/>
+      </c>
+      <c r="J158" t="str">
+        <f t="shared" si="114"/>
+        <v/>
+      </c>
+      <c r="K158" t="str">
+        <f t="shared" si="115"/>
+        <v/>
+      </c>
+      <c r="L158" t="str">
+        <f t="shared" si="116"/>
+        <v/>
+      </c>
+      <c r="M158" t="str">
+        <f t="shared" si="117"/>
+        <v/>
+      </c>
+      <c r="N158" t="str">
+        <f t="shared" si="118"/>
+        <v/>
+      </c>
+      <c r="O158" t="str">
+        <f t="shared" si="119"/>
+        <v/>
+      </c>
+      <c r="P158" t="str">
+        <f t="shared" si="120"/>
+        <v/>
+      </c>
+      <c r="Q158" t="str">
+        <f t="shared" si="121"/>
+        <v/>
+      </c>
+      <c r="R158" t="str">
+        <f t="shared" si="122"/>
+        <v/>
+      </c>
+      <c r="S158" t="str">
         <f t="shared" si="123"/>
         <v/>
       </c>
-      <c r="E158" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="F158" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="G158" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="H158" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="I158" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="J158" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="K158" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="L158" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="M158" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="N158" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-      <c r="O158" t="str">
+      <c r="T158" t="str">
+        <f t="shared" si="124"/>
+        <v/>
+      </c>
+      <c r="U158" t="str">
+        <f t="shared" si="125"/>
+        <v/>
+      </c>
+      <c r="V158" t="str">
+        <f t="shared" si="126"/>
+        <v/>
+      </c>
+      <c r="W158" t="str">
+        <f t="shared" si="127"/>
+        <v/>
+      </c>
+      <c r="X158" t="str">
+        <f t="shared" si="128"/>
+        <v/>
+      </c>
+      <c r="Y158" t="str">
+        <f t="shared" si="129"/>
+        <v/>
+      </c>
+      <c r="Z158" t="str">
+        <f t="shared" si="130"/>
+        <v/>
+      </c>
+      <c r="AA158" t="str">
+        <f t="shared" si="131"/>
+        <v/>
+      </c>
+      <c r="AB158" t="str">
+        <f t="shared" si="132"/>
+        <v/>
+      </c>
+      <c r="AC158" t="str">
+        <f t="shared" si="133"/>
+        <v/>
+      </c>
+      <c r="AD158" t="str">
+        <f t="shared" si="134"/>
+        <v/>
+      </c>
+      <c r="AE158" t="str">
+        <f t="shared" si="135"/>
+        <v/>
+      </c>
+      <c r="AF158" t="str">
         <f t="shared" si="79"/>
         <v/>
       </c>
-      <c r="P158" t="str">
+      <c r="AG158" t="str">
         <f t="shared" si="80"/>
         <v/>
       </c>
-      <c r="Q158" t="str">
+      <c r="AH158" t="str">
         <f t="shared" si="81"/>
         <v/>
       </c>
-      <c r="R158" t="str">
+      <c r="AI158" t="str">
         <f t="shared" si="82"/>
         <v/>
       </c>
-      <c r="S158" t="str">
+      <c r="AJ158" t="str">
         <f t="shared" si="83"/>
         <v/>
       </c>
-      <c r="T158" t="str">
+      <c r="AK158" t="str">
         <f t="shared" si="84"/>
         <v/>
       </c>
-      <c r="U158" t="str">
+      <c r="AL158" t="str">
         <f t="shared" si="85"/>
         <v/>
       </c>
-      <c r="V158" t="str">
+      <c r="AM158">
         <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="W158" t="str">
+        <v>0.21052631578947367</v>
+      </c>
+      <c r="AN158" t="str">
         <f t="shared" si="87"/>
         <v/>
       </c>
-      <c r="X158" t="str">
-        <f t="shared" si="87"/>
-        <v/>
-      </c>
-      <c r="Y158" t="str">
+      <c r="AO158" t="str">
         <f t="shared" si="88"/>
         <v/>
       </c>
-      <c r="Z158" t="str">
+      <c r="AP158" t="str">
         <f t="shared" si="89"/>
         <v/>
       </c>
-      <c r="AA158" t="str">
+      <c r="AQ158" t="str">
         <f t="shared" si="90"/>
         <v/>
       </c>
-      <c r="AB158" t="str">
+      <c r="AR158" t="str">
         <f t="shared" si="91"/>
         <v/>
       </c>
-      <c r="AC158" t="str">
+      <c r="AS158" t="str">
         <f t="shared" si="92"/>
         <v/>
       </c>
-      <c r="AD158" t="str">
+      <c r="AT158" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
-      <c r="AE158" t="str">
+      <c r="AU158" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
-      <c r="AF158" t="str">
+      <c r="AV158" t="str">
         <f t="shared" si="95"/>
         <v/>
       </c>
-      <c r="AG158" t="str">
+      <c r="AW158" t="str">
         <f t="shared" si="96"/>
         <v/>
       </c>
-      <c r="AH158" t="str">
-        <f t="shared" si="124"/>
-        <v/>
-      </c>
-      <c r="AI158" t="str">
+      <c r="AX158" t="str">
         <f t="shared" si="97"/>
         <v/>
       </c>
-      <c r="AJ158" t="str">
+      <c r="AY158" t="str">
         <f t="shared" si="98"/>
         <v/>
       </c>
-      <c r="AK158" t="str">
+      <c r="AZ158" t="str">
         <f t="shared" si="99"/>
         <v/>
       </c>
-      <c r="AL158" t="str">
+      <c r="BA158" t="str">
         <f t="shared" si="100"/>
         <v/>
       </c>
-      <c r="AM158">
+      <c r="BB158" t="str">
         <f t="shared" si="101"/>
-        <v>0.21052631578947367</v>
-      </c>
-      <c r="AN158" t="str">
+        <v/>
+      </c>
+      <c r="BC158" t="str">
         <f t="shared" si="102"/>
         <v/>
       </c>
-      <c r="AO158" t="str">
+      <c r="BD158" t="str">
         <f t="shared" si="103"/>
         <v/>
       </c>
-      <c r="AP158" t="str">
+      <c r="BE158" t="str">
         <f t="shared" si="104"/>
         <v/>
       </c>
-      <c r="AQ158" t="str">
+      <c r="BF158" t="str">
         <f t="shared" si="105"/>
         <v/>
       </c>
-      <c r="AR158" t="str">
+      <c r="BG158" t="str">
         <f t="shared" si="106"/>
         <v/>
       </c>
-      <c r="AS158" t="str">
+      <c r="BH158" t="str">
         <f t="shared" si="107"/>
         <v/>
       </c>
-      <c r="AT158" t="str">
+      <c r="BI158" t="str">
         <f t="shared" si="108"/>
-        <v/>
-      </c>
-      <c r="AU158" t="str">
-        <f t="shared" si="109"/>
-        <v/>
-      </c>
-      <c r="AV158" t="str">
-        <f t="shared" si="110"/>
-        <v/>
-      </c>
-      <c r="AW158" t="str">
-        <f t="shared" si="111"/>
-        <v/>
-      </c>
-      <c r="AX158" t="str">
-        <f t="shared" si="112"/>
-        <v/>
-      </c>
-      <c r="AY158" t="str">
-        <f t="shared" si="113"/>
-        <v/>
-      </c>
-      <c r="AZ158" t="str">
-        <f t="shared" si="114"/>
-        <v/>
-      </c>
-      <c r="BA158" t="str">
-        <f t="shared" si="115"/>
-        <v/>
-      </c>
-      <c r="BB158" t="str">
-        <f t="shared" si="116"/>
-        <v/>
-      </c>
-      <c r="BC158" t="str">
-        <f t="shared" si="117"/>
-        <v/>
-      </c>
-      <c r="BD158" t="str">
-        <f t="shared" si="118"/>
-        <v/>
-      </c>
-      <c r="BE158" t="str">
-        <f t="shared" si="119"/>
-        <v/>
-      </c>
-      <c r="BF158" t="str">
-        <f t="shared" si="125"/>
-        <v/>
-      </c>
-      <c r="BG158" t="str">
-        <f t="shared" si="120"/>
-        <v/>
-      </c>
-      <c r="BH158" t="str">
-        <f t="shared" si="121"/>
-        <v/>
-      </c>
-      <c r="BI158" t="str">
-        <f t="shared" si="122"/>
         <v/>
       </c>
     </row>
@@ -32906,235 +32913,235 @@
       </c>
       <c r="C159" s="3"/>
       <c r="D159" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="E159" t="str">
+        <f t="shared" si="109"/>
+        <v/>
+      </c>
+      <c r="F159" t="str">
+        <f t="shared" si="110"/>
+        <v/>
+      </c>
+      <c r="G159" t="str">
+        <f t="shared" si="111"/>
+        <v/>
+      </c>
+      <c r="H159" t="str">
+        <f t="shared" si="112"/>
+        <v/>
+      </c>
+      <c r="I159" t="str">
+        <f t="shared" si="113"/>
+        <v/>
+      </c>
+      <c r="J159" t="str">
+        <f t="shared" si="114"/>
+        <v/>
+      </c>
+      <c r="K159" t="str">
+        <f t="shared" si="115"/>
+        <v/>
+      </c>
+      <c r="L159" t="str">
+        <f t="shared" si="116"/>
+        <v/>
+      </c>
+      <c r="M159" t="str">
+        <f t="shared" si="117"/>
+        <v/>
+      </c>
+      <c r="N159" t="str">
+        <f t="shared" si="118"/>
+        <v/>
+      </c>
+      <c r="O159" t="str">
+        <f t="shared" si="119"/>
+        <v/>
+      </c>
+      <c r="P159" t="str">
+        <f t="shared" si="120"/>
+        <v/>
+      </c>
+      <c r="Q159" t="str">
+        <f t="shared" si="121"/>
+        <v/>
+      </c>
+      <c r="R159" t="str">
+        <f t="shared" si="122"/>
+        <v/>
+      </c>
+      <c r="S159" t="str">
         <f t="shared" si="123"/>
         <v/>
       </c>
-      <c r="E159" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="F159" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="G159" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="H159" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="I159" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="J159" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="K159" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="L159" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="M159" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="N159" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-      <c r="O159" t="str">
+      <c r="T159" t="str">
+        <f t="shared" si="124"/>
+        <v/>
+      </c>
+      <c r="U159" t="str">
+        <f t="shared" si="125"/>
+        <v/>
+      </c>
+      <c r="V159" t="str">
+        <f t="shared" si="126"/>
+        <v/>
+      </c>
+      <c r="W159" t="str">
+        <f t="shared" si="127"/>
+        <v/>
+      </c>
+      <c r="X159" t="str">
+        <f t="shared" si="128"/>
+        <v/>
+      </c>
+      <c r="Y159" t="str">
+        <f t="shared" si="129"/>
+        <v/>
+      </c>
+      <c r="Z159" t="str">
+        <f t="shared" si="130"/>
+        <v/>
+      </c>
+      <c r="AA159" t="str">
+        <f t="shared" si="131"/>
+        <v/>
+      </c>
+      <c r="AB159" t="str">
+        <f t="shared" si="132"/>
+        <v/>
+      </c>
+      <c r="AC159" t="str">
+        <f t="shared" si="133"/>
+        <v/>
+      </c>
+      <c r="AD159" t="str">
+        <f t="shared" si="134"/>
+        <v/>
+      </c>
+      <c r="AE159" t="str">
+        <f t="shared" si="135"/>
+        <v/>
+      </c>
+      <c r="AF159" t="str">
         <f t="shared" si="79"/>
         <v/>
       </c>
-      <c r="P159" t="str">
+      <c r="AG159" t="str">
         <f t="shared" si="80"/>
         <v/>
       </c>
-      <c r="Q159" t="str">
+      <c r="AH159" t="str">
         <f t="shared" si="81"/>
         <v/>
       </c>
-      <c r="R159" t="str">
+      <c r="AI159" t="str">
         <f t="shared" si="82"/>
         <v/>
       </c>
-      <c r="S159" t="str">
+      <c r="AJ159" t="str">
         <f t="shared" si="83"/>
         <v/>
       </c>
-      <c r="T159" t="str">
+      <c r="AK159" t="str">
         <f t="shared" si="84"/>
         <v/>
       </c>
-      <c r="U159" t="str">
+      <c r="AL159" t="str">
         <f t="shared" si="85"/>
         <v/>
       </c>
-      <c r="V159" t="str">
+      <c r="AM159">
         <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="W159" t="str">
+        <v>0.21052631578947367</v>
+      </c>
+      <c r="AN159" t="str">
         <f t="shared" si="87"/>
         <v/>
       </c>
-      <c r="X159" t="str">
-        <f t="shared" si="87"/>
-        <v/>
-      </c>
-      <c r="Y159" t="str">
+      <c r="AO159" t="str">
         <f t="shared" si="88"/>
         <v/>
       </c>
-      <c r="Z159" t="str">
+      <c r="AP159" t="str">
         <f t="shared" si="89"/>
         <v/>
       </c>
-      <c r="AA159" t="str">
+      <c r="AQ159" t="str">
         <f t="shared" si="90"/>
         <v/>
       </c>
-      <c r="AB159" t="str">
+      <c r="AR159" t="str">
         <f t="shared" si="91"/>
         <v/>
       </c>
-      <c r="AC159" t="str">
+      <c r="AS159" t="str">
         <f t="shared" si="92"/>
         <v/>
       </c>
-      <c r="AD159" t="str">
+      <c r="AT159" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
-      <c r="AE159" t="str">
+      <c r="AU159" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
-      <c r="AF159" t="str">
+      <c r="AV159" t="str">
         <f t="shared" si="95"/>
         <v/>
       </c>
-      <c r="AG159" t="str">
+      <c r="AW159" t="str">
         <f t="shared" si="96"/>
         <v/>
       </c>
-      <c r="AH159" t="str">
-        <f t="shared" si="124"/>
-        <v/>
-      </c>
-      <c r="AI159" t="str">
+      <c r="AX159" t="str">
         <f t="shared" si="97"/>
         <v/>
       </c>
-      <c r="AJ159" t="str">
+      <c r="AY159" t="str">
         <f t="shared" si="98"/>
         <v/>
       </c>
-      <c r="AK159" t="str">
+      <c r="AZ159" t="str">
         <f t="shared" si="99"/>
         <v/>
       </c>
-      <c r="AL159" t="str">
+      <c r="BA159" t="str">
         <f t="shared" si="100"/>
         <v/>
       </c>
-      <c r="AM159">
+      <c r="BB159" t="str">
         <f t="shared" si="101"/>
-        <v>0.21052631578947367</v>
-      </c>
-      <c r="AN159" t="str">
+        <v/>
+      </c>
+      <c r="BC159" t="str">
         <f t="shared" si="102"/>
         <v/>
       </c>
-      <c r="AO159" t="str">
+      <c r="BD159" t="str">
         <f t="shared" si="103"/>
         <v/>
       </c>
-      <c r="AP159" t="str">
+      <c r="BE159" t="str">
         <f t="shared" si="104"/>
         <v/>
       </c>
-      <c r="AQ159" t="str">
+      <c r="BF159" t="str">
         <f t="shared" si="105"/>
         <v/>
       </c>
-      <c r="AR159" t="str">
+      <c r="BG159" t="str">
         <f t="shared" si="106"/>
         <v/>
       </c>
-      <c r="AS159" t="str">
+      <c r="BH159" t="str">
         <f t="shared" si="107"/>
         <v/>
       </c>
-      <c r="AT159" t="str">
+      <c r="BI159" t="str">
         <f t="shared" si="108"/>
-        <v/>
-      </c>
-      <c r="AU159" t="str">
-        <f t="shared" si="109"/>
-        <v/>
-      </c>
-      <c r="AV159" t="str">
-        <f t="shared" si="110"/>
-        <v/>
-      </c>
-      <c r="AW159" t="str">
-        <f t="shared" si="111"/>
-        <v/>
-      </c>
-      <c r="AX159" t="str">
-        <f t="shared" si="112"/>
-        <v/>
-      </c>
-      <c r="AY159" t="str">
-        <f t="shared" si="113"/>
-        <v/>
-      </c>
-      <c r="AZ159" t="str">
-        <f t="shared" si="114"/>
-        <v/>
-      </c>
-      <c r="BA159" t="str">
-        <f t="shared" si="115"/>
-        <v/>
-      </c>
-      <c r="BB159" t="str">
-        <f t="shared" si="116"/>
-        <v/>
-      </c>
-      <c r="BC159" t="str">
-        <f t="shared" si="117"/>
-        <v/>
-      </c>
-      <c r="BD159" t="str">
-        <f t="shared" si="118"/>
-        <v/>
-      </c>
-      <c r="BE159" t="str">
-        <f t="shared" si="119"/>
-        <v/>
-      </c>
-      <c r="BF159" t="str">
-        <f t="shared" si="125"/>
-        <v/>
-      </c>
-      <c r="BG159" t="str">
-        <f t="shared" si="120"/>
-        <v/>
-      </c>
-      <c r="BH159" t="str">
-        <f t="shared" si="121"/>
-        <v/>
-      </c>
-      <c r="BI159" t="str">
-        <f t="shared" si="122"/>
         <v/>
       </c>
     </row>
@@ -33147,235 +33154,235 @@
       </c>
       <c r="C160" s="3"/>
       <c r="D160" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="E160" t="str">
+        <f t="shared" si="109"/>
+        <v/>
+      </c>
+      <c r="F160" t="str">
+        <f t="shared" si="110"/>
+        <v/>
+      </c>
+      <c r="G160" t="str">
+        <f t="shared" si="111"/>
+        <v/>
+      </c>
+      <c r="H160" t="str">
+        <f t="shared" si="112"/>
+        <v/>
+      </c>
+      <c r="I160" t="str">
+        <f t="shared" si="113"/>
+        <v/>
+      </c>
+      <c r="J160" t="str">
+        <f t="shared" si="114"/>
+        <v/>
+      </c>
+      <c r="K160" t="str">
+        <f t="shared" si="115"/>
+        <v/>
+      </c>
+      <c r="L160" t="str">
+        <f t="shared" si="116"/>
+        <v/>
+      </c>
+      <c r="M160" t="str">
+        <f t="shared" si="117"/>
+        <v/>
+      </c>
+      <c r="N160" t="str">
+        <f t="shared" si="118"/>
+        <v/>
+      </c>
+      <c r="O160" t="str">
+        <f t="shared" si="119"/>
+        <v/>
+      </c>
+      <c r="P160" t="str">
+        <f t="shared" si="120"/>
+        <v/>
+      </c>
+      <c r="Q160" t="str">
+        <f t="shared" si="121"/>
+        <v/>
+      </c>
+      <c r="R160" t="str">
+        <f t="shared" si="122"/>
+        <v/>
+      </c>
+      <c r="S160" t="str">
         <f t="shared" si="123"/>
         <v/>
       </c>
-      <c r="E160" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="F160" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="G160" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="H160" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="I160" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="J160" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="K160" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="L160" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="M160" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="N160" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-      <c r="O160" t="str">
+      <c r="T160" t="str">
+        <f t="shared" si="124"/>
+        <v/>
+      </c>
+      <c r="U160" t="str">
+        <f t="shared" si="125"/>
+        <v/>
+      </c>
+      <c r="V160" t="str">
+        <f t="shared" si="126"/>
+        <v/>
+      </c>
+      <c r="W160" t="str">
+        <f t="shared" si="127"/>
+        <v/>
+      </c>
+      <c r="X160" t="str">
+        <f t="shared" si="128"/>
+        <v/>
+      </c>
+      <c r="Y160" t="str">
+        <f t="shared" si="129"/>
+        <v/>
+      </c>
+      <c r="Z160" t="str">
+        <f t="shared" si="130"/>
+        <v/>
+      </c>
+      <c r="AA160" t="str">
+        <f t="shared" si="131"/>
+        <v/>
+      </c>
+      <c r="AB160" t="str">
+        <f t="shared" si="132"/>
+        <v/>
+      </c>
+      <c r="AC160" t="str">
+        <f t="shared" si="133"/>
+        <v/>
+      </c>
+      <c r="AD160" t="str">
+        <f t="shared" si="134"/>
+        <v/>
+      </c>
+      <c r="AE160" t="str">
+        <f t="shared" si="135"/>
+        <v/>
+      </c>
+      <c r="AF160" t="str">
         <f t="shared" si="79"/>
         <v/>
       </c>
-      <c r="P160" t="str">
+      <c r="AG160" t="str">
         <f t="shared" si="80"/>
         <v/>
       </c>
-      <c r="Q160" t="str">
+      <c r="AH160" t="str">
         <f t="shared" si="81"/>
         <v/>
       </c>
-      <c r="R160" t="str">
+      <c r="AI160" t="str">
         <f t="shared" si="82"/>
         <v/>
       </c>
-      <c r="S160" t="str">
+      <c r="AJ160" t="str">
         <f t="shared" si="83"/>
         <v/>
       </c>
-      <c r="T160" t="str">
+      <c r="AK160" t="str">
         <f t="shared" si="84"/>
         <v/>
       </c>
-      <c r="U160" t="str">
+      <c r="AL160" t="str">
         <f t="shared" si="85"/>
         <v/>
       </c>
-      <c r="V160" t="str">
+      <c r="AM160">
         <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="W160" t="str">
+        <v>0.21052631578947367</v>
+      </c>
+      <c r="AN160" t="str">
         <f t="shared" si="87"/>
         <v/>
       </c>
-      <c r="X160" t="str">
-        <f t="shared" si="87"/>
-        <v/>
-      </c>
-      <c r="Y160" t="str">
+      <c r="AO160" t="str">
         <f t="shared" si="88"/>
         <v/>
       </c>
-      <c r="Z160" t="str">
+      <c r="AP160" t="str">
         <f t="shared" si="89"/>
         <v/>
       </c>
-      <c r="AA160" t="str">
+      <c r="AQ160" t="str">
         <f t="shared" si="90"/>
         <v/>
       </c>
-      <c r="AB160" t="str">
+      <c r="AR160" t="str">
         <f t="shared" si="91"/>
         <v/>
       </c>
-      <c r="AC160" t="str">
+      <c r="AS160" t="str">
         <f t="shared" si="92"/>
         <v/>
       </c>
-      <c r="AD160" t="str">
+      <c r="AT160" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
-      <c r="AE160" t="str">
+      <c r="AU160" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
-      <c r="AF160" t="str">
+      <c r="AV160" t="str">
         <f t="shared" si="95"/>
         <v/>
       </c>
-      <c r="AG160" t="str">
+      <c r="AW160" t="str">
         <f t="shared" si="96"/>
         <v/>
       </c>
-      <c r="AH160" t="str">
-        <f t="shared" si="124"/>
-        <v/>
-      </c>
-      <c r="AI160" t="str">
+      <c r="AX160" t="str">
         <f t="shared" si="97"/>
         <v/>
       </c>
-      <c r="AJ160" t="str">
+      <c r="AY160" t="str">
         <f t="shared" si="98"/>
         <v/>
       </c>
-      <c r="AK160" t="str">
+      <c r="AZ160" t="str">
         <f t="shared" si="99"/>
         <v/>
       </c>
-      <c r="AL160" t="str">
+      <c r="BA160" t="str">
         <f t="shared" si="100"/>
         <v/>
       </c>
-      <c r="AM160">
+      <c r="BB160" t="str">
         <f t="shared" si="101"/>
-        <v>0.21052631578947367</v>
-      </c>
-      <c r="AN160" t="str">
+        <v/>
+      </c>
+      <c r="BC160" t="str">
         <f t="shared" si="102"/>
         <v/>
       </c>
-      <c r="AO160" t="str">
+      <c r="BD160" t="str">
         <f t="shared" si="103"/>
         <v/>
       </c>
-      <c r="AP160" t="str">
+      <c r="BE160" t="str">
         <f t="shared" si="104"/>
         <v/>
       </c>
-      <c r="AQ160" t="str">
+      <c r="BF160" t="str">
         <f t="shared" si="105"/>
         <v/>
       </c>
-      <c r="AR160" t="str">
+      <c r="BG160" t="str">
         <f t="shared" si="106"/>
         <v/>
       </c>
-      <c r="AS160" t="str">
+      <c r="BH160" t="str">
         <f t="shared" si="107"/>
         <v/>
       </c>
-      <c r="AT160" t="str">
+      <c r="BI160" t="str">
         <f t="shared" si="108"/>
-        <v/>
-      </c>
-      <c r="AU160" t="str">
-        <f t="shared" si="109"/>
-        <v/>
-      </c>
-      <c r="AV160" t="str">
-        <f t="shared" si="110"/>
-        <v/>
-      </c>
-      <c r="AW160" t="str">
-        <f t="shared" si="111"/>
-        <v/>
-      </c>
-      <c r="AX160" t="str">
-        <f t="shared" si="112"/>
-        <v/>
-      </c>
-      <c r="AY160" t="str">
-        <f t="shared" si="113"/>
-        <v/>
-      </c>
-      <c r="AZ160" t="str">
-        <f t="shared" si="114"/>
-        <v/>
-      </c>
-      <c r="BA160" t="str">
-        <f t="shared" si="115"/>
-        <v/>
-      </c>
-      <c r="BB160" t="str">
-        <f t="shared" si="116"/>
-        <v/>
-      </c>
-      <c r="BC160" t="str">
-        <f t="shared" si="117"/>
-        <v/>
-      </c>
-      <c r="BD160" t="str">
-        <f t="shared" si="118"/>
-        <v/>
-      </c>
-      <c r="BE160" t="str">
-        <f t="shared" si="119"/>
-        <v/>
-      </c>
-      <c r="BF160" t="str">
-        <f t="shared" si="125"/>
-        <v/>
-      </c>
-      <c r="BG160" t="str">
-        <f t="shared" si="120"/>
-        <v/>
-      </c>
-      <c r="BH160" t="str">
-        <f t="shared" si="121"/>
-        <v/>
-      </c>
-      <c r="BI160" t="str">
-        <f t="shared" si="122"/>
         <v/>
       </c>
     </row>
@@ -33388,235 +33395,235 @@
       </c>
       <c r="C161" s="3"/>
       <c r="D161" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="E161" t="str">
+        <f t="shared" si="109"/>
+        <v/>
+      </c>
+      <c r="F161" t="str">
+        <f t="shared" si="110"/>
+        <v/>
+      </c>
+      <c r="G161" t="str">
+        <f t="shared" si="111"/>
+        <v/>
+      </c>
+      <c r="H161" t="str">
+        <f t="shared" si="112"/>
+        <v/>
+      </c>
+      <c r="I161" t="str">
+        <f t="shared" si="113"/>
+        <v/>
+      </c>
+      <c r="J161" t="str">
+        <f t="shared" si="114"/>
+        <v/>
+      </c>
+      <c r="K161" t="str">
+        <f t="shared" si="115"/>
+        <v/>
+      </c>
+      <c r="L161" t="str">
+        <f t="shared" si="116"/>
+        <v/>
+      </c>
+      <c r="M161" t="str">
+        <f t="shared" si="117"/>
+        <v/>
+      </c>
+      <c r="N161" t="str">
+        <f t="shared" si="118"/>
+        <v/>
+      </c>
+      <c r="O161" t="str">
+        <f t="shared" si="119"/>
+        <v/>
+      </c>
+      <c r="P161" t="str">
+        <f t="shared" si="120"/>
+        <v/>
+      </c>
+      <c r="Q161" t="str">
+        <f t="shared" si="121"/>
+        <v/>
+      </c>
+      <c r="R161" t="str">
+        <f t="shared" si="122"/>
+        <v/>
+      </c>
+      <c r="S161" t="str">
         <f t="shared" si="123"/>
         <v/>
       </c>
-      <c r="E161" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="F161" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="G161" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="H161" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="I161" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="J161" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="K161" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="L161" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="M161" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="N161" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-      <c r="O161" t="str">
+      <c r="T161" t="str">
+        <f t="shared" si="124"/>
+        <v/>
+      </c>
+      <c r="U161" t="str">
+        <f t="shared" si="125"/>
+        <v/>
+      </c>
+      <c r="V161" t="str">
+        <f t="shared" si="126"/>
+        <v/>
+      </c>
+      <c r="W161" t="str">
+        <f t="shared" si="127"/>
+        <v/>
+      </c>
+      <c r="X161" t="str">
+        <f t="shared" si="128"/>
+        <v/>
+      </c>
+      <c r="Y161" t="str">
+        <f t="shared" si="129"/>
+        <v/>
+      </c>
+      <c r="Z161" t="str">
+        <f t="shared" si="130"/>
+        <v/>
+      </c>
+      <c r="AA161" t="str">
+        <f t="shared" si="131"/>
+        <v/>
+      </c>
+      <c r="AB161" t="str">
+        <f t="shared" si="132"/>
+        <v/>
+      </c>
+      <c r="AC161" t="str">
+        <f t="shared" si="133"/>
+        <v/>
+      </c>
+      <c r="AD161" t="str">
+        <f t="shared" si="134"/>
+        <v/>
+      </c>
+      <c r="AE161" t="str">
+        <f t="shared" si="135"/>
+        <v/>
+      </c>
+      <c r="AF161" t="str">
         <f t="shared" si="79"/>
         <v/>
       </c>
-      <c r="P161" t="str">
+      <c r="AG161" t="str">
         <f t="shared" si="80"/>
         <v/>
       </c>
-      <c r="Q161" t="str">
+      <c r="AH161" t="str">
         <f t="shared" si="81"/>
         <v/>
       </c>
-      <c r="R161" t="str">
+      <c r="AI161" t="str">
         <f t="shared" si="82"/>
         <v/>
       </c>
-      <c r="S161" t="str">
+      <c r="AJ161" t="str">
         <f t="shared" si="83"/>
         <v/>
       </c>
-      <c r="T161" t="str">
+      <c r="AK161" t="str">
         <f t="shared" si="84"/>
         <v/>
       </c>
-      <c r="U161" t="str">
+      <c r="AL161" t="str">
         <f t="shared" si="85"/>
         <v/>
       </c>
-      <c r="V161" t="str">
+      <c r="AM161">
         <f t="shared" si="86"/>
-        <v/>
-      </c>
-      <c r="W161" t="str">
+        <v>0.21052631578947367</v>
+      </c>
+      <c r="AN161" t="str">
         <f t="shared" si="87"/>
         <v/>
       </c>
-      <c r="X161" t="str">
-        <f t="shared" si="87"/>
-        <v/>
-      </c>
-      <c r="Y161" t="str">
+      <c r="AO161" t="str">
         <f t="shared" si="88"/>
         <v/>
       </c>
-      <c r="Z161" t="str">
+      <c r="AP161" t="str">
         <f t="shared" si="89"/>
         <v/>
       </c>
-      <c r="AA161" t="str">
+      <c r="AQ161" t="str">
         <f t="shared" si="90"/>
         <v/>
       </c>
-      <c r="AB161" t="str">
+      <c r="AR161" t="str">
         <f t="shared" si="91"/>
         <v/>
       </c>
-      <c r="AC161" t="str">
+      <c r="AS161" t="str">
         <f t="shared" si="92"/>
         <v/>
       </c>
-      <c r="AD161" t="str">
+      <c r="AT161" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
-      <c r="AE161" t="str">
+      <c r="AU161" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
-      <c r="AF161" t="str">
+      <c r="AV161" t="str">
         <f t="shared" si="95"/>
         <v/>
       </c>
-      <c r="AG161" t="str">
+      <c r="AW161" t="str">
         <f t="shared" si="96"/>
         <v/>
       </c>
-      <c r="AH161" t="str">
-        <f t="shared" si="124"/>
-        <v/>
-      </c>
-      <c r="AI161" t="str">
+      <c r="AX161" t="str">
         <f t="shared" si="97"/>
         <v/>
       </c>
-      <c r="AJ161" t="str">
+      <c r="AY161" t="str">
         <f t="shared" si="98"/>
         <v/>
       </c>
-      <c r="AK161" t="str">
+      <c r="AZ161" t="str">
         <f t="shared" si="99"/>
         <v/>
       </c>
-      <c r="AL161" t="str">
+      <c r="BA161" t="str">
         <f t="shared" si="100"/>
         <v/>
       </c>
-      <c r="AM161">
+      <c r="BB161" t="str">
         <f t="shared" si="101"/>
-        <v>0.21052631578947367</v>
-      </c>
-      <c r="AN161" t="str">
+        <v/>
+      </c>
+      <c r="BC161" t="str">
         <f t="shared" si="102"/>
         <v/>
       </c>
-      <c r="AO161" t="str">
+      <c r="BD161" t="str">
         <f t="shared" si="103"/>
         <v/>
       </c>
-      <c r="AP161" t="str">
+      <c r="BE161" t="str">
         <f t="shared" si="104"/>
         <v/>
       </c>
-      <c r="AQ161" t="str">
+      <c r="BF161" t="str">
         <f t="shared" si="105"/>
         <v/>
       </c>
-      <c r="AR161" t="str">
+      <c r="BG161" t="str">
         <f t="shared" si="106"/>
         <v/>
       </c>
-      <c r="AS161" t="str">
+      <c r="BH161" t="str">
         <f t="shared" si="107"/>
         <v/>
       </c>
-      <c r="AT161" t="str">
+      <c r="BI161" t="str">
         <f t="shared" si="108"/>
-        <v/>
-      </c>
-      <c r="AU161" t="str">
-        <f t="shared" si="109"/>
-        <v/>
-      </c>
-      <c r="AV161" t="str">
-        <f t="shared" si="110"/>
-        <v/>
-      </c>
-      <c r="AW161" t="str">
-        <f t="shared" si="111"/>
-        <v/>
-      </c>
-      <c r="AX161" t="str">
-        <f t="shared" si="112"/>
-        <v/>
-      </c>
-      <c r="AY161" t="str">
-        <f t="shared" si="113"/>
-        <v/>
-      </c>
-      <c r="AZ161" t="str">
-        <f t="shared" si="114"/>
-        <v/>
-      </c>
-      <c r="BA161" t="str">
-        <f t="shared" si="115"/>
-        <v/>
-      </c>
-      <c r="BB161" t="str">
-        <f t="shared" si="116"/>
-        <v/>
-      </c>
-      <c r="BC161" t="str">
-        <f t="shared" si="117"/>
-        <v/>
-      </c>
-      <c r="BD161" t="str">
-        <f t="shared" si="118"/>
-        <v/>
-      </c>
-      <c r="BE161" t="str">
-        <f t="shared" si="119"/>
-        <v/>
-      </c>
-      <c r="BF161" t="str">
-        <f t="shared" si="125"/>
-        <v/>
-      </c>
-      <c r="BG161" t="str">
-        <f t="shared" si="120"/>
-        <v/>
-      </c>
-      <c r="BH161" t="str">
-        <f t="shared" si="121"/>
-        <v/>
-      </c>
-      <c r="BI161" t="str">
-        <f t="shared" si="122"/>
         <v/>
       </c>
     </row>
